--- a/平成31年度/シースリーカップ/6.大会当日使用/スコアシート2019【2019年改定版】.xlsx
+++ b/平成31年度/シースリーカップ/6.大会当日使用/スコアシート2019【2019年改定版】.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\ウィザーズ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\6.大会当日使用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="14955" windowHeight="8670"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="14955" windowHeight="8670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ｽｺｱｼｰﾄ（白）" sheetId="8" r:id="rId1"/>
@@ -1876,6 +1876,333 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1885,326 +2212,92 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2228,99 +2321,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3690,7 +3690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3708,11 +3708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S1" s="208" t="s">
+      <c r="S1" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
     </row>
     <row r="2" spans="1:37" s="24" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
@@ -3723,30 +3723,30 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="209" t="s">
+      <c r="J2" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -3755,103 +3755,103 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="123" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123" t="s">
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123" t="s">
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123" t="s">
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="124"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="108"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="164"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="213"/>
-      <c r="U4" s="112" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112" t="s">
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="113"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="110"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -3866,116 +3866,116 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="200"/>
-      <c r="U5" s="201" t="s">
+      <c r="R5" s="121"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="202"/>
-      <c r="W5" s="202"/>
-      <c r="X5" s="202"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
       <c r="Y5" s="90"/>
       <c r="Z5" s="90"/>
       <c r="AA5" s="90"/>
       <c r="AB5" s="90"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="203" t="s">
+      <c r="AD5" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" s="202"/>
-      <c r="AF5" s="202"/>
-      <c r="AG5" s="202"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="125"/>
       <c r="AH5" s="90"/>
       <c r="AI5" s="90"/>
       <c r="AJ5" s="90"/>
       <c r="AK5" s="91"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="187" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="184" t="s">
+      <c r="J6" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="184"/>
+      <c r="K6" s="128"/>
       <c r="L6" s="89"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="187" t="s">
+      <c r="O6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
       <c r="R6" s="89"/>
       <c r="S6" s="32"/>
       <c r="T6" s="33"/>
-      <c r="U6" s="205"/>
-      <c r="V6" s="206"/>
-      <c r="W6" s="206"/>
-      <c r="X6" s="206"/>
-      <c r="Y6" s="206"/>
-      <c r="Z6" s="206"/>
-      <c r="AA6" s="206"/>
-      <c r="AB6" s="206"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193"/>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="193"/>
-      <c r="AJ6" s="193"/>
-      <c r="AK6" s="195"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="135"/>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="182"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="184" t="s">
+      <c r="J7" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="184"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="89"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="182"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="172"/>
       <c r="R7" s="89"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="189" t="s">
+      <c r="U7" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="190"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="190"/>
+      <c r="V7" s="178"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
       <c r="AB7" s="36"/>
       <c r="AC7" s="37"/>
-      <c r="AD7" s="191" t="s">
+      <c r="AD7" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="190"/>
-      <c r="AG7" s="190"/>
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="178"/>
+      <c r="AG7" s="178"/>
       <c r="AH7" s="36"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
@@ -3984,79 +3984,79 @@
     <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30"/>
       <c r="B8" s="89"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="185"/>
-      <c r="J8" s="184" t="s">
+      <c r="D8" s="173"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="174"/>
+      <c r="J8" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="184"/>
+      <c r="K8" s="128"/>
       <c r="L8" s="89"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="185"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="174"/>
       <c r="R8" s="89"/>
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
-      <c r="U8" s="192"/>
-      <c r="V8" s="193"/>
-      <c r="W8" s="193"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="193"/>
-      <c r="AB8" s="193"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
       <c r="AC8" s="39"/>
-      <c r="AD8" s="194"/>
-      <c r="AE8" s="193"/>
-      <c r="AF8" s="193"/>
-      <c r="AG8" s="193"/>
-      <c r="AH8" s="193"/>
-      <c r="AI8" s="193"/>
-      <c r="AJ8" s="193"/>
-      <c r="AK8" s="195"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="134"/>
+      <c r="AJ8" s="134"/>
+      <c r="AK8" s="135"/>
     </row>
     <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="89"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="188"/>
-      <c r="J9" s="184" t="s">
+      <c r="D9" s="175"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="176"/>
+      <c r="J9" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="184"/>
+      <c r="K9" s="128"/>
       <c r="L9" s="89"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="188"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="176"/>
       <c r="R9" s="89"/>
       <c r="S9" s="89"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="189" t="s">
+      <c r="U9" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="178"/>
+      <c r="X9" s="178"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
       <c r="AC9" s="37"/>
-      <c r="AD9" s="170" t="s">
+      <c r="AD9" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="AE9" s="171"/>
-      <c r="AF9" s="171"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="171"/>
-      <c r="AJ9" s="171"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="142"/>
+      <c r="AJ9" s="142"/>
       <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4069,10 +4069,10 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="172" t="s">
+      <c r="J10" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="172"/>
+      <c r="K10" s="143"/>
       <c r="L10" s="59"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -4082,87 +4082,87 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
       <c r="AC10" s="43"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="174"/>
-      <c r="AF10" s="174"/>
-      <c r="AG10" s="174"/>
-      <c r="AH10" s="174"/>
-      <c r="AI10" s="174"/>
-      <c r="AJ10" s="174"/>
-      <c r="AK10" s="176"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="145"/>
+      <c r="AJ10" s="145"/>
+      <c r="AK10" s="147"/>
     </row>
     <row r="11" spans="1:37" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="137" t="s">
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="140" t="s">
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="140"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="146" t="s">
+      <c r="M12" s="153"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="148"/>
-      <c r="X12" s="238" t="s">
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="161"/>
+      <c r="X12" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="239"/>
-      <c r="Z12" s="239"/>
-      <c r="AA12" s="239"/>
-      <c r="AB12" s="239"/>
-      <c r="AC12" s="239"/>
-      <c r="AD12" s="239"/>
-      <c r="AE12" s="239"/>
-      <c r="AF12" s="239"/>
-      <c r="AG12" s="239"/>
-      <c r="AH12" s="239"/>
-      <c r="AI12" s="239"/>
-      <c r="AJ12" s="239"/>
-      <c r="AK12" s="240"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="163"/>
+      <c r="AI12" s="163"/>
+      <c r="AJ12" s="163"/>
+      <c r="AK12" s="164"/>
     </row>
     <row r="13" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="143"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="156"/>
       <c r="O13" s="3" t="s">
         <v>67</v>
       </c>
@@ -4178,109 +4178,109 @@
       <c r="S13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="242"/>
-      <c r="Z13" s="242"/>
-      <c r="AA13" s="242"/>
-      <c r="AB13" s="242"/>
-      <c r="AC13" s="242"/>
-      <c r="AD13" s="242"/>
-      <c r="AE13" s="242"/>
-      <c r="AF13" s="242"/>
-      <c r="AG13" s="242"/>
-      <c r="AH13" s="242"/>
-      <c r="AI13" s="242"/>
-      <c r="AJ13" s="242"/>
-      <c r="AK13" s="243"/>
+      <c r="X13" s="165"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="166"/>
+      <c r="AC13" s="166"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="166"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="166"/>
+      <c r="AI13" s="166"/>
+      <c r="AJ13" s="166"/>
+      <c r="AK13" s="167"/>
     </row>
     <row r="14" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="145"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="158"/>
       <c r="O14" s="44"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="45"/>
-      <c r="X14" s="244" t="s">
+      <c r="X14" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="Y14" s="245"/>
-      <c r="Z14" s="246" t="s">
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AA14" s="247"/>
+      <c r="AA14" s="137"/>
       <c r="AB14" s="17"/>
-      <c r="AC14" s="248" t="s">
+      <c r="AC14" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="AD14" s="245"/>
-      <c r="AE14" s="246" t="s">
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="247"/>
+      <c r="AF14" s="137"/>
       <c r="AG14" s="17"/>
-      <c r="AH14" s="248" t="s">
+      <c r="AH14" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="245"/>
-      <c r="AJ14" s="246" t="s">
+      <c r="AI14" s="139"/>
+      <c r="AJ14" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AK14" s="249"/>
+      <c r="AK14" s="140"/>
     </row>
     <row r="15" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="119" t="s">
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="155" t="s">
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="157" t="s">
+      <c r="K15" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="128" t="s">
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="124"/>
-      <c r="U15" s="129" t="s">
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="108"/>
+      <c r="U15" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="130"/>
+      <c r="V15" s="198"/>
       <c r="X15" s="47"/>
       <c r="Y15" s="94">
         <v>1</v>
       </c>
-      <c r="Z15" s="250">
+      <c r="Z15" s="104">
         <v>1</v>
       </c>
       <c r="AA15" s="18"/>
@@ -4289,7 +4289,7 @@
       <c r="AD15" s="12">
         <v>41</v>
       </c>
-      <c r="AE15" s="250">
+      <c r="AE15" s="104">
         <v>41</v>
       </c>
       <c r="AF15" s="96"/>
@@ -4298,22 +4298,22 @@
       <c r="AI15" s="12">
         <v>81</v>
       </c>
-      <c r="AJ15" s="250">
+      <c r="AJ15" s="104">
         <v>81</v>
       </c>
       <c r="AK15" s="97"/>
     </row>
     <row r="16" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="125"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="156"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="189"/>
       <c r="K16" s="48" t="s">
         <v>7</v>
       </c>
@@ -4341,13 +4341,13 @@
       <c r="S16" s="10">
         <v>5</v>
       </c>
-      <c r="U16" s="131"/>
-      <c r="V16" s="132"/>
+      <c r="U16" s="199"/>
+      <c r="V16" s="200"/>
       <c r="X16" s="49"/>
       <c r="Y16" s="87">
         <v>2</v>
       </c>
-      <c r="Z16" s="251">
+      <c r="Z16" s="105">
         <v>2</v>
       </c>
       <c r="AA16" s="20"/>
@@ -4356,7 +4356,7 @@
       <c r="AD16" s="15">
         <v>42</v>
       </c>
-      <c r="AE16" s="251">
+      <c r="AE16" s="105">
         <v>42</v>
       </c>
       <c r="AF16" s="15"/>
@@ -4365,7 +4365,7 @@
       <c r="AI16" s="15">
         <v>82</v>
       </c>
-      <c r="AJ16" s="251">
+      <c r="AJ16" s="105">
         <v>82</v>
       </c>
       <c r="AK16" s="23"/>
@@ -4377,13 +4377,13 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="133" t="s">
+      <c r="E17" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="135"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="203"/>
       <c r="J17" s="60">
         <v>4</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="Y17" s="87">
         <v>3</v>
       </c>
-      <c r="Z17" s="251">
+      <c r="Z17" s="105">
         <v>3</v>
       </c>
       <c r="AA17" s="20"/>
@@ -4409,7 +4409,7 @@
       <c r="AD17" s="15">
         <v>43</v>
       </c>
-      <c r="AE17" s="251">
+      <c r="AE17" s="105">
         <v>43</v>
       </c>
       <c r="AF17" s="15"/>
@@ -4418,7 +4418,7 @@
       <c r="AI17" s="15">
         <v>83</v>
       </c>
-      <c r="AJ17" s="251">
+      <c r="AJ17" s="105">
         <v>83</v>
       </c>
       <c r="AK17" s="23"/>
@@ -4430,13 +4430,13 @@
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="117"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="197"/>
       <c r="J18" s="61">
         <v>5</v>
       </c>
@@ -4449,17 +4449,17 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="54"/>
-      <c r="U18" s="118" t="s">
+      <c r="U18" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="126" t="s">
+      <c r="V18" s="205" t="s">
         <v>12</v>
       </c>
       <c r="X18" s="49"/>
       <c r="Y18" s="87">
         <v>4</v>
       </c>
-      <c r="Z18" s="251">
+      <c r="Z18" s="105">
         <v>4</v>
       </c>
       <c r="AA18" s="20"/>
@@ -4468,7 +4468,7 @@
       <c r="AD18" s="15">
         <v>44</v>
       </c>
-      <c r="AE18" s="251">
+      <c r="AE18" s="105">
         <v>44</v>
       </c>
       <c r="AF18" s="15"/>
@@ -4477,7 +4477,7 @@
       <c r="AI18" s="15">
         <v>84</v>
       </c>
-      <c r="AJ18" s="251">
+      <c r="AJ18" s="105">
         <v>84</v>
       </c>
       <c r="AK18" s="23"/>
@@ -4489,13 +4489,13 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
       <c r="J19" s="61">
         <v>6</v>
       </c>
@@ -4508,13 +4508,13 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="54"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="127"/>
+      <c r="U19" s="182"/>
+      <c r="V19" s="206"/>
       <c r="X19" s="49"/>
       <c r="Y19" s="87">
         <v>5</v>
       </c>
-      <c r="Z19" s="251">
+      <c r="Z19" s="105">
         <v>5</v>
       </c>
       <c r="AA19" s="20"/>
@@ -4523,7 +4523,7 @@
       <c r="AD19" s="15">
         <v>45</v>
       </c>
-      <c r="AE19" s="251">
+      <c r="AE19" s="105">
         <v>45</v>
       </c>
       <c r="AF19" s="15"/>
@@ -4532,7 +4532,7 @@
       <c r="AI19" s="15">
         <v>85</v>
       </c>
-      <c r="AJ19" s="251">
+      <c r="AJ19" s="105">
         <v>85</v>
       </c>
       <c r="AK19" s="23"/>
@@ -4544,13 +4544,13 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197"/>
       <c r="J20" s="61">
         <v>7</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="Y20" s="87">
         <v>6</v>
       </c>
-      <c r="Z20" s="251">
+      <c r="Z20" s="105">
         <v>6</v>
       </c>
       <c r="AA20" s="20"/>
@@ -4582,7 +4582,7 @@
       <c r="AD20" s="15">
         <v>46</v>
       </c>
-      <c r="AE20" s="251">
+      <c r="AE20" s="105">
         <v>46</v>
       </c>
       <c r="AF20" s="15"/>
@@ -4591,7 +4591,7 @@
       <c r="AI20" s="15">
         <v>86</v>
       </c>
-      <c r="AJ20" s="251">
+      <c r="AJ20" s="105">
         <v>86</v>
       </c>
       <c r="AK20" s="23"/>
@@ -4603,13 +4603,13 @@
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="115" t="s">
+      <c r="E21" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="197"/>
       <c r="J21" s="61">
         <v>8</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="Y21" s="87">
         <v>7</v>
       </c>
-      <c r="Z21" s="251">
+      <c r="Z21" s="105">
         <v>7</v>
       </c>
       <c r="AA21" s="20"/>
@@ -4641,7 +4641,7 @@
       <c r="AD21" s="15">
         <v>47</v>
       </c>
-      <c r="AE21" s="251">
+      <c r="AE21" s="105">
         <v>47</v>
       </c>
       <c r="AF21" s="15"/>
@@ -4650,7 +4650,7 @@
       <c r="AI21" s="15">
         <v>87</v>
       </c>
-      <c r="AJ21" s="251">
+      <c r="AJ21" s="105">
         <v>87</v>
       </c>
       <c r="AK21" s="23"/>
@@ -4662,13 +4662,13 @@
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="197"/>
       <c r="J22" s="61">
         <v>9</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="Y22" s="87">
         <v>8</v>
       </c>
-      <c r="Z22" s="251">
+      <c r="Z22" s="105">
         <v>8</v>
       </c>
       <c r="AA22" s="20"/>
@@ -4700,7 +4700,7 @@
       <c r="AD22" s="15">
         <v>48</v>
       </c>
-      <c r="AE22" s="251">
+      <c r="AE22" s="105">
         <v>48</v>
       </c>
       <c r="AF22" s="15"/>
@@ -4709,7 +4709,7 @@
       <c r="AI22" s="15">
         <v>88</v>
       </c>
-      <c r="AJ22" s="251">
+      <c r="AJ22" s="105">
         <v>88</v>
       </c>
       <c r="AK22" s="23"/>
@@ -4721,13 +4721,13 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="197"/>
       <c r="J23" s="61">
         <v>10</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="Y23" s="87">
         <v>9</v>
       </c>
-      <c r="Z23" s="251">
+      <c r="Z23" s="105">
         <v>9</v>
       </c>
       <c r="AA23" s="20"/>
@@ -4759,7 +4759,7 @@
       <c r="AD23" s="15">
         <v>49</v>
       </c>
-      <c r="AE23" s="251">
+      <c r="AE23" s="105">
         <v>49</v>
       </c>
       <c r="AF23" s="15"/>
@@ -4768,7 +4768,7 @@
       <c r="AI23" s="15">
         <v>89</v>
       </c>
-      <c r="AJ23" s="251">
+      <c r="AJ23" s="105">
         <v>89</v>
       </c>
       <c r="AK23" s="23"/>
@@ -4780,13 +4780,13 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="115" t="s">
+      <c r="E24" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="117"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
       <c r="J24" s="61">
         <v>11</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="Y24" s="87">
         <v>10</v>
       </c>
-      <c r="Z24" s="251">
+      <c r="Z24" s="105">
         <v>10</v>
       </c>
       <c r="AA24" s="20"/>
@@ -4812,7 +4812,7 @@
       <c r="AD24" s="15">
         <v>50</v>
       </c>
-      <c r="AE24" s="251">
+      <c r="AE24" s="105">
         <v>50</v>
       </c>
       <c r="AF24" s="15"/>
@@ -4821,7 +4821,7 @@
       <c r="AI24" s="15">
         <v>90</v>
       </c>
-      <c r="AJ24" s="251">
+      <c r="AJ24" s="105">
         <v>90</v>
       </c>
       <c r="AK24" s="23"/>
@@ -4833,13 +4833,13 @@
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="115" t="s">
+      <c r="E25" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="117"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="197"/>
       <c r="J25" s="61">
         <v>12</v>
       </c>
@@ -4852,17 +4852,17 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="54"/>
-      <c r="U25" s="118" t="s">
+      <c r="U25" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="126" t="s">
+      <c r="V25" s="205" t="s">
         <v>14</v>
       </c>
       <c r="X25" s="49"/>
       <c r="Y25" s="87">
         <v>11</v>
       </c>
-      <c r="Z25" s="251">
+      <c r="Z25" s="105">
         <v>11</v>
       </c>
       <c r="AA25" s="20"/>
@@ -4871,7 +4871,7 @@
       <c r="AD25" s="15">
         <v>51</v>
       </c>
-      <c r="AE25" s="251">
+      <c r="AE25" s="105">
         <v>51</v>
       </c>
       <c r="AF25" s="15"/>
@@ -4880,7 +4880,7 @@
       <c r="AI25" s="15">
         <v>91</v>
       </c>
-      <c r="AJ25" s="251">
+      <c r="AJ25" s="105">
         <v>91</v>
       </c>
       <c r="AK25" s="23"/>
@@ -4892,13 +4892,13 @@
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="115" t="s">
+      <c r="E26" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="117"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="197"/>
       <c r="J26" s="61">
         <v>13</v>
       </c>
@@ -4911,13 +4911,13 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="54"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="127"/>
+      <c r="U26" s="182"/>
+      <c r="V26" s="206"/>
       <c r="X26" s="49"/>
       <c r="Y26" s="87">
         <v>12</v>
       </c>
-      <c r="Z26" s="251">
+      <c r="Z26" s="105">
         <v>12</v>
       </c>
       <c r="AA26" s="20"/>
@@ -4926,7 +4926,7 @@
       <c r="AD26" s="15">
         <v>52</v>
       </c>
-      <c r="AE26" s="251">
+      <c r="AE26" s="105">
         <v>52</v>
       </c>
       <c r="AF26" s="15"/>
@@ -4935,7 +4935,7 @@
       <c r="AI26" s="15">
         <v>92</v>
       </c>
-      <c r="AJ26" s="251">
+      <c r="AJ26" s="105">
         <v>92</v>
       </c>
       <c r="AK26" s="23"/>
@@ -4950,13 +4950,13 @@
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="115" t="s">
+      <c r="E27" s="195" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
       <c r="J27" s="61">
         <v>14</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="Y27" s="87">
         <v>13</v>
       </c>
-      <c r="Z27" s="251">
+      <c r="Z27" s="105">
         <v>13</v>
       </c>
       <c r="AA27" s="20"/>
@@ -4988,7 +4988,7 @@
       <c r="AD27" s="15">
         <v>53</v>
       </c>
-      <c r="AE27" s="251">
+      <c r="AE27" s="105">
         <v>53</v>
       </c>
       <c r="AF27" s="15"/>
@@ -4997,7 +4997,7 @@
       <c r="AI27" s="15">
         <v>93</v>
       </c>
-      <c r="AJ27" s="251">
+      <c r="AJ27" s="105">
         <v>93</v>
       </c>
       <c r="AK27" s="23"/>
@@ -5009,13 +5009,13 @@
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="115" t="s">
+      <c r="E28" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="117"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="197"/>
       <c r="J28" s="61">
         <v>15</v>
       </c>
@@ -5038,7 +5038,7 @@
       <c r="Y28" s="87">
         <v>14</v>
       </c>
-      <c r="Z28" s="251">
+      <c r="Z28" s="105">
         <v>14</v>
       </c>
       <c r="AA28" s="20"/>
@@ -5047,7 +5047,7 @@
       <c r="AD28" s="15">
         <v>54</v>
       </c>
-      <c r="AE28" s="251">
+      <c r="AE28" s="105">
         <v>54</v>
       </c>
       <c r="AF28" s="15"/>
@@ -5056,7 +5056,7 @@
       <c r="AI28" s="15">
         <v>94</v>
       </c>
-      <c r="AJ28" s="251">
+      <c r="AJ28" s="105">
         <v>94</v>
       </c>
       <c r="AK28" s="23"/>
@@ -5068,13 +5068,13 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="115" t="s">
+      <c r="E29" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="117"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="197"/>
       <c r="J29" s="61">
         <v>16</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="Y29" s="87">
         <v>15</v>
       </c>
-      <c r="Z29" s="251">
+      <c r="Z29" s="105">
         <v>15</v>
       </c>
       <c r="AA29" s="20"/>
@@ -5106,7 +5106,7 @@
       <c r="AD29" s="15">
         <v>55</v>
       </c>
-      <c r="AE29" s="251">
+      <c r="AE29" s="105">
         <v>55</v>
       </c>
       <c r="AF29" s="15"/>
@@ -5115,7 +5115,7 @@
       <c r="AI29" s="15">
         <v>95</v>
       </c>
-      <c r="AJ29" s="251">
+      <c r="AJ29" s="105">
         <v>95</v>
       </c>
       <c r="AK29" s="23"/>
@@ -5127,13 +5127,13 @@
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="115" t="s">
+      <c r="E30" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="117"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="197"/>
       <c r="J30" s="61">
         <v>17</v>
       </c>
@@ -5156,7 +5156,7 @@
       <c r="Y30" s="87">
         <v>16</v>
       </c>
-      <c r="Z30" s="251">
+      <c r="Z30" s="105">
         <v>16</v>
       </c>
       <c r="AA30" s="20"/>
@@ -5165,7 +5165,7 @@
       <c r="AD30" s="15">
         <v>56</v>
       </c>
-      <c r="AE30" s="251">
+      <c r="AE30" s="105">
         <v>56</v>
       </c>
       <c r="AF30" s="15"/>
@@ -5174,7 +5174,7 @@
       <c r="AI30" s="15">
         <v>96</v>
       </c>
-      <c r="AJ30" s="251">
+      <c r="AJ30" s="105">
         <v>96</v>
       </c>
       <c r="AK30" s="23"/>
@@ -5186,13 +5186,13 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="115" t="s">
+      <c r="E31" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="117"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="197"/>
       <c r="J31" s="62">
         <v>18</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="Y31" s="87">
         <v>17</v>
       </c>
-      <c r="Z31" s="251">
+      <c r="Z31" s="105">
         <v>17</v>
       </c>
       <c r="AA31" s="20"/>
@@ -5218,7 +5218,7 @@
       <c r="AD31" s="15">
         <v>57</v>
       </c>
-      <c r="AE31" s="251">
+      <c r="AE31" s="105">
         <v>57</v>
       </c>
       <c r="AF31" s="15"/>
@@ -5227,28 +5227,28 @@
       <c r="AI31" s="15">
         <v>97</v>
       </c>
-      <c r="AJ31" s="251">
+      <c r="AJ31" s="105">
         <v>97</v>
       </c>
       <c r="AK31" s="23"/>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="208"/>
       <c r="E32" s="102"/>
       <c r="F32" s="102"/>
       <c r="G32" s="51"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="237"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="209"/>
       <c r="O32" s="50"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="51"/>
@@ -5258,7 +5258,7 @@
       <c r="Y32" s="87">
         <v>18</v>
       </c>
-      <c r="Z32" s="251">
+      <c r="Z32" s="105">
         <v>18</v>
       </c>
       <c r="AA32" s="20"/>
@@ -5267,7 +5267,7 @@
       <c r="AD32" s="15">
         <v>58</v>
       </c>
-      <c r="AE32" s="251">
+      <c r="AE32" s="105">
         <v>58</v>
       </c>
       <c r="AF32" s="15"/>
@@ -5276,28 +5276,28 @@
       <c r="AI32" s="15">
         <v>98</v>
       </c>
-      <c r="AJ32" s="251">
+      <c r="AJ32" s="105">
         <v>98</v>
       </c>
       <c r="AK32" s="23"/>
     </row>
     <row r="33" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="162" t="s">
+      <c r="A33" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="211"/>
       <c r="E33" s="103"/>
       <c r="F33" s="103"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="107"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="212"/>
       <c r="O33" s="44"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -5307,7 +5307,7 @@
       <c r="Y33" s="87">
         <v>19</v>
       </c>
-      <c r="Z33" s="251">
+      <c r="Z33" s="105">
         <v>19</v>
       </c>
       <c r="AA33" s="20"/>
@@ -5316,7 +5316,7 @@
       <c r="AD33" s="15">
         <v>59</v>
       </c>
-      <c r="AE33" s="251">
+      <c r="AE33" s="105">
         <v>59</v>
       </c>
       <c r="AF33" s="15"/>
@@ -5325,7 +5325,7 @@
       <c r="AI33" s="15">
         <v>99</v>
       </c>
-      <c r="AJ33" s="251">
+      <c r="AJ33" s="105">
         <v>99</v>
       </c>
       <c r="AK33" s="23"/>
@@ -5354,7 +5354,7 @@
       <c r="Y34" s="87">
         <v>20</v>
       </c>
-      <c r="Z34" s="251">
+      <c r="Z34" s="105">
         <v>20</v>
       </c>
       <c r="AA34" s="20"/>
@@ -5363,7 +5363,7 @@
       <c r="AD34" s="15">
         <v>60</v>
       </c>
-      <c r="AE34" s="251">
+      <c r="AE34" s="105">
         <v>60</v>
       </c>
       <c r="AF34" s="15"/>
@@ -5372,7 +5372,7 @@
       <c r="AI34" s="15">
         <v>100</v>
       </c>
-      <c r="AJ34" s="251">
+      <c r="AJ34" s="105">
         <v>100</v>
       </c>
       <c r="AK34" s="23"/>
@@ -5382,7 +5382,7 @@
       <c r="Y35" s="87">
         <v>21</v>
       </c>
-      <c r="Z35" s="251">
+      <c r="Z35" s="105">
         <v>21</v>
       </c>
       <c r="AA35" s="20"/>
@@ -5391,7 +5391,7 @@
       <c r="AD35" s="15">
         <v>61</v>
       </c>
-      <c r="AE35" s="251">
+      <c r="AE35" s="105">
         <v>61</v>
       </c>
       <c r="AF35" s="15"/>
@@ -5400,42 +5400,42 @@
       <c r="AI35" s="15">
         <v>101</v>
       </c>
-      <c r="AJ35" s="251">
+      <c r="AJ35" s="105">
         <v>101</v>
       </c>
       <c r="AK35" s="23"/>
     </row>
     <row r="36" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="129" t="s">
+      <c r="A36" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="140" t="s">
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="140"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="146" t="s">
+      <c r="M36" s="153"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="148"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="160"/>
+      <c r="S36" s="161"/>
       <c r="X36" s="49"/>
       <c r="Y36" s="87">
         <v>22</v>
       </c>
-      <c r="Z36" s="251">
+      <c r="Z36" s="105">
         <v>22</v>
       </c>
       <c r="AA36" s="20"/>
@@ -5444,7 +5444,7 @@
       <c r="AD36" s="15">
         <v>62</v>
       </c>
-      <c r="AE36" s="251">
+      <c r="AE36" s="105">
         <v>62</v>
       </c>
       <c r="AF36" s="15"/>
@@ -5453,28 +5453,28 @@
       <c r="AI36" s="15">
         <v>102</v>
       </c>
-      <c r="AJ36" s="251">
+      <c r="AJ36" s="105">
         <v>102</v>
       </c>
       <c r="AK36" s="23"/>
     </row>
     <row r="37" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="150"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="142"/>
-      <c r="M37" s="142"/>
-      <c r="N37" s="143"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="156"/>
       <c r="O37" s="3" t="s">
         <v>67</v>
       </c>
@@ -5494,7 +5494,7 @@
       <c r="Y37" s="87">
         <v>23</v>
       </c>
-      <c r="Z37" s="251">
+      <c r="Z37" s="105">
         <v>23</v>
       </c>
       <c r="AA37" s="20"/>
@@ -5503,7 +5503,7 @@
       <c r="AD37" s="15">
         <v>63</v>
       </c>
-      <c r="AE37" s="251">
+      <c r="AE37" s="105">
         <v>63</v>
       </c>
       <c r="AF37" s="15"/>
@@ -5512,7 +5512,7 @@
       <c r="AI37" s="15">
         <v>103</v>
       </c>
-      <c r="AJ37" s="251">
+      <c r="AJ37" s="105">
         <v>103</v>
       </c>
       <c r="AK37" s="23"/>
@@ -5521,17 +5521,17 @@
       <c r="A38" s="100"/>
       <c r="B38" s="101"/>
       <c r="C38" s="101"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="145"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="158"/>
       <c r="O38" s="44"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
@@ -5541,7 +5541,7 @@
       <c r="Y38" s="87">
         <v>24</v>
       </c>
-      <c r="Z38" s="251">
+      <c r="Z38" s="105">
         <v>24</v>
       </c>
       <c r="AA38" s="20"/>
@@ -5550,7 +5550,7 @@
       <c r="AD38" s="15">
         <v>64</v>
       </c>
-      <c r="AE38" s="251">
+      <c r="AE38" s="105">
         <v>64</v>
       </c>
       <c r="AF38" s="15"/>
@@ -5559,52 +5559,52 @@
       <c r="AI38" s="15">
         <v>104</v>
       </c>
-      <c r="AJ38" s="251">
+      <c r="AJ38" s="105">
         <v>104</v>
       </c>
       <c r="AK38" s="23"/>
     </row>
     <row r="39" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="152" t="s">
+      <c r="B39" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="119" t="s">
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="155" t="s">
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="157" t="s">
+      <c r="K39" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="159"/>
-      <c r="O39" s="128" t="s">
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="192"/>
+      <c r="O39" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="124"/>
-      <c r="U39" s="129" t="s">
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="108"/>
+      <c r="U39" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="V39" s="130"/>
+      <c r="V39" s="198"/>
       <c r="X39" s="49"/>
       <c r="Y39" s="87">
         <v>25</v>
       </c>
-      <c r="Z39" s="251">
+      <c r="Z39" s="105">
         <v>25</v>
       </c>
       <c r="AA39" s="20"/>
@@ -5613,7 +5613,7 @@
       <c r="AD39" s="15">
         <v>65</v>
       </c>
-      <c r="AE39" s="251">
+      <c r="AE39" s="105">
         <v>65</v>
       </c>
       <c r="AF39" s="15"/>
@@ -5622,22 +5622,22 @@
       <c r="AI39" s="15">
         <v>105</v>
       </c>
-      <c r="AJ39" s="251">
+      <c r="AJ39" s="105">
         <v>105</v>
       </c>
       <c r="AK39" s="23"/>
     </row>
     <row r="40" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="156"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="189"/>
       <c r="K40" s="48" t="s">
         <v>7</v>
       </c>
@@ -5665,13 +5665,13 @@
       <c r="S40" s="10">
         <v>5</v>
       </c>
-      <c r="U40" s="131"/>
-      <c r="V40" s="132"/>
+      <c r="U40" s="199"/>
+      <c r="V40" s="200"/>
       <c r="X40" s="49"/>
       <c r="Y40" s="87">
         <v>26</v>
       </c>
-      <c r="Z40" s="251">
+      <c r="Z40" s="105">
         <v>26</v>
       </c>
       <c r="AA40" s="20"/>
@@ -5680,7 +5680,7 @@
       <c r="AD40" s="15">
         <v>66</v>
       </c>
-      <c r="AE40" s="251">
+      <c r="AE40" s="105">
         <v>66</v>
       </c>
       <c r="AF40" s="15"/>
@@ -5689,7 +5689,7 @@
       <c r="AI40" s="15">
         <v>106</v>
       </c>
-      <c r="AJ40" s="251">
+      <c r="AJ40" s="105">
         <v>106</v>
       </c>
       <c r="AK40" s="23"/>
@@ -5701,11 +5701,11 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="135"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
       <c r="J41" s="60">
         <v>4</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="Y41" s="87">
         <v>27</v>
       </c>
-      <c r="Z41" s="251">
+      <c r="Z41" s="105">
         <v>27</v>
       </c>
       <c r="AA41" s="20"/>
@@ -5731,7 +5731,7 @@
       <c r="AD41" s="15">
         <v>67</v>
       </c>
-      <c r="AE41" s="251">
+      <c r="AE41" s="105">
         <v>67</v>
       </c>
       <c r="AF41" s="15"/>
@@ -5740,7 +5740,7 @@
       <c r="AI41" s="15">
         <v>107</v>
       </c>
-      <c r="AJ41" s="251">
+      <c r="AJ41" s="105">
         <v>107</v>
       </c>
       <c r="AK41" s="23"/>
@@ -5752,11 +5752,11 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="117"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="197"/>
       <c r="J42" s="61">
         <v>5</v>
       </c>
@@ -5769,17 +5769,17 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="54"/>
-      <c r="U42" s="118" t="s">
+      <c r="U42" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="126" t="s">
+      <c r="V42" s="205" t="s">
         <v>12</v>
       </c>
       <c r="X42" s="49"/>
       <c r="Y42" s="87">
         <v>28</v>
       </c>
-      <c r="Z42" s="251">
+      <c r="Z42" s="105">
         <v>28</v>
       </c>
       <c r="AA42" s="20"/>
@@ -5788,7 +5788,7 @@
       <c r="AD42" s="15">
         <v>68</v>
       </c>
-      <c r="AE42" s="251">
+      <c r="AE42" s="105">
         <v>68</v>
       </c>
       <c r="AF42" s="15"/>
@@ -5797,7 +5797,7 @@
       <c r="AI42" s="15">
         <v>108</v>
       </c>
-      <c r="AJ42" s="251">
+      <c r="AJ42" s="105">
         <v>108</v>
       </c>
       <c r="AK42" s="23"/>
@@ -5809,11 +5809,11 @@
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="117"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="197"/>
       <c r="J43" s="61">
         <v>6</v>
       </c>
@@ -5826,13 +5826,13 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="54"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="127"/>
+      <c r="U43" s="182"/>
+      <c r="V43" s="206"/>
       <c r="X43" s="49"/>
       <c r="Y43" s="87">
         <v>29</v>
       </c>
-      <c r="Z43" s="251">
+      <c r="Z43" s="105">
         <v>29</v>
       </c>
       <c r="AA43" s="20"/>
@@ -5841,7 +5841,7 @@
       <c r="AD43" s="15">
         <v>69</v>
       </c>
-      <c r="AE43" s="251">
+      <c r="AE43" s="105">
         <v>69</v>
       </c>
       <c r="AF43" s="15"/>
@@ -5850,7 +5850,7 @@
       <c r="AI43" s="15">
         <v>109</v>
       </c>
-      <c r="AJ43" s="251">
+      <c r="AJ43" s="105">
         <v>109</v>
       </c>
       <c r="AK43" s="23"/>
@@ -5862,11 +5862,11 @@
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="117"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="197"/>
       <c r="J44" s="61">
         <v>7</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="Y44" s="87">
         <v>30</v>
       </c>
-      <c r="Z44" s="251">
+      <c r="Z44" s="105">
         <v>30</v>
       </c>
       <c r="AA44" s="20"/>
@@ -5898,7 +5898,7 @@
       <c r="AD44" s="15">
         <v>70</v>
       </c>
-      <c r="AE44" s="251">
+      <c r="AE44" s="105">
         <v>70</v>
       </c>
       <c r="AF44" s="15"/>
@@ -5907,7 +5907,7 @@
       <c r="AI44" s="15">
         <v>110</v>
       </c>
-      <c r="AJ44" s="251">
+      <c r="AJ44" s="105">
         <v>110</v>
       </c>
       <c r="AK44" s="23"/>
@@ -5919,11 +5919,11 @@
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="117"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="197"/>
       <c r="J45" s="61">
         <v>8</v>
       </c>
@@ -5946,7 +5946,7 @@
       <c r="Y45" s="87">
         <v>31</v>
       </c>
-      <c r="Z45" s="251">
+      <c r="Z45" s="105">
         <v>31</v>
       </c>
       <c r="AA45" s="20"/>
@@ -5955,7 +5955,7 @@
       <c r="AD45" s="15">
         <v>71</v>
       </c>
-      <c r="AE45" s="251">
+      <c r="AE45" s="105">
         <v>71</v>
       </c>
       <c r="AF45" s="15"/>
@@ -5964,7 +5964,7 @@
       <c r="AI45" s="15">
         <v>111</v>
       </c>
-      <c r="AJ45" s="251">
+      <c r="AJ45" s="105">
         <v>111</v>
       </c>
       <c r="AK45" s="23"/>
@@ -5976,11 +5976,11 @@
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="117"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="197"/>
       <c r="J46" s="61">
         <v>9</v>
       </c>
@@ -6003,7 +6003,7 @@
       <c r="Y46" s="87">
         <v>32</v>
       </c>
-      <c r="Z46" s="251">
+      <c r="Z46" s="105">
         <v>32</v>
       </c>
       <c r="AA46" s="20"/>
@@ -6012,7 +6012,7 @@
       <c r="AD46" s="15">
         <v>72</v>
       </c>
-      <c r="AE46" s="251">
+      <c r="AE46" s="105">
         <v>72</v>
       </c>
       <c r="AF46" s="15"/>
@@ -6021,7 +6021,7 @@
       <c r="AI46" s="15">
         <v>112</v>
       </c>
-      <c r="AJ46" s="251">
+      <c r="AJ46" s="105">
         <v>112</v>
       </c>
       <c r="AK46" s="23"/>
@@ -6033,11 +6033,11 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="117"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="197"/>
       <c r="J47" s="61">
         <v>10</v>
       </c>
@@ -6060,7 +6060,7 @@
       <c r="Y47" s="87">
         <v>33</v>
       </c>
-      <c r="Z47" s="251">
+      <c r="Z47" s="105">
         <v>33</v>
       </c>
       <c r="AA47" s="20"/>
@@ -6069,7 +6069,7 @@
       <c r="AD47" s="15">
         <v>73</v>
       </c>
-      <c r="AE47" s="251">
+      <c r="AE47" s="105">
         <v>73</v>
       </c>
       <c r="AF47" s="15"/>
@@ -6078,7 +6078,7 @@
       <c r="AI47" s="15">
         <v>113</v>
       </c>
-      <c r="AJ47" s="251">
+      <c r="AJ47" s="105">
         <v>113</v>
       </c>
       <c r="AK47" s="23"/>
@@ -6090,11 +6090,11 @@
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="117"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
+      <c r="I48" s="197"/>
       <c r="J48" s="61">
         <v>11</v>
       </c>
@@ -6111,7 +6111,7 @@
       <c r="Y48" s="87">
         <v>34</v>
       </c>
-      <c r="Z48" s="251">
+      <c r="Z48" s="105">
         <v>34</v>
       </c>
       <c r="AA48" s="20"/>
@@ -6120,7 +6120,7 @@
       <c r="AD48" s="15">
         <v>74</v>
       </c>
-      <c r="AE48" s="251">
+      <c r="AE48" s="105">
         <v>74</v>
       </c>
       <c r="AF48" s="15"/>
@@ -6129,7 +6129,7 @@
       <c r="AI48" s="15">
         <v>114</v>
       </c>
-      <c r="AJ48" s="251">
+      <c r="AJ48" s="105">
         <v>114</v>
       </c>
       <c r="AK48" s="23"/>
@@ -6141,11 +6141,11 @@
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="117"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="197"/>
       <c r="J49" s="61">
         <v>12</v>
       </c>
@@ -6158,17 +6158,17 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
       <c r="S49" s="54"/>
-      <c r="U49" s="118" t="s">
+      <c r="U49" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="V49" s="126" t="s">
+      <c r="V49" s="205" t="s">
         <v>14</v>
       </c>
       <c r="X49" s="49"/>
       <c r="Y49" s="87">
         <v>35</v>
       </c>
-      <c r="Z49" s="251">
+      <c r="Z49" s="105">
         <v>35</v>
       </c>
       <c r="AA49" s="20"/>
@@ -6177,7 +6177,7 @@
       <c r="AD49" s="15">
         <v>75</v>
       </c>
-      <c r="AE49" s="251">
+      <c r="AE49" s="105">
         <v>75</v>
       </c>
       <c r="AF49" s="15"/>
@@ -6186,7 +6186,7 @@
       <c r="AI49" s="15">
         <v>115</v>
       </c>
-      <c r="AJ49" s="251">
+      <c r="AJ49" s="105">
         <v>115</v>
       </c>
       <c r="AK49" s="23"/>
@@ -6198,11 +6198,11 @@
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="117"/>
+      <c r="E50" s="195"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="197"/>
       <c r="J50" s="61">
         <v>13</v>
       </c>
@@ -6215,13 +6215,13 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
       <c r="S50" s="54"/>
-      <c r="U50" s="125"/>
-      <c r="V50" s="127"/>
+      <c r="U50" s="182"/>
+      <c r="V50" s="206"/>
       <c r="X50" s="49"/>
       <c r="Y50" s="87">
         <v>36</v>
       </c>
-      <c r="Z50" s="251">
+      <c r="Z50" s="105">
         <v>36</v>
       </c>
       <c r="AA50" s="20"/>
@@ -6230,7 +6230,7 @@
       <c r="AD50" s="15">
         <v>76</v>
       </c>
-      <c r="AE50" s="251">
+      <c r="AE50" s="105">
         <v>76</v>
       </c>
       <c r="AF50" s="15"/>
@@ -6239,7 +6239,7 @@
       <c r="AI50" s="15">
         <v>116</v>
       </c>
-      <c r="AJ50" s="251">
+      <c r="AJ50" s="105">
         <v>116</v>
       </c>
       <c r="AK50" s="23"/>
@@ -6251,11 +6251,11 @@
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="117"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="197"/>
       <c r="J51" s="61">
         <v>14</v>
       </c>
@@ -6278,7 +6278,7 @@
       <c r="Y51" s="87">
         <v>37</v>
       </c>
-      <c r="Z51" s="251">
+      <c r="Z51" s="105">
         <v>37</v>
       </c>
       <c r="AA51" s="20"/>
@@ -6287,7 +6287,7 @@
       <c r="AD51" s="15">
         <v>77</v>
       </c>
-      <c r="AE51" s="251">
+      <c r="AE51" s="105">
         <v>77</v>
       </c>
       <c r="AF51" s="15"/>
@@ -6296,7 +6296,7 @@
       <c r="AI51" s="15">
         <v>117</v>
       </c>
-      <c r="AJ51" s="251">
+      <c r="AJ51" s="105">
         <v>117</v>
       </c>
       <c r="AK51" s="23"/>
@@ -6308,11 +6308,11 @@
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="117"/>
+      <c r="E52" s="195"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="197"/>
       <c r="J52" s="61">
         <v>15</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="Y52" s="87">
         <v>38</v>
       </c>
-      <c r="Z52" s="251">
+      <c r="Z52" s="105">
         <v>38</v>
       </c>
       <c r="AA52" s="20"/>
@@ -6344,7 +6344,7 @@
       <c r="AD52" s="15">
         <v>78</v>
       </c>
-      <c r="AE52" s="251">
+      <c r="AE52" s="105">
         <v>78</v>
       </c>
       <c r="AF52" s="15"/>
@@ -6353,7 +6353,7 @@
       <c r="AI52" s="15">
         <v>118</v>
       </c>
-      <c r="AJ52" s="251">
+      <c r="AJ52" s="105">
         <v>118</v>
       </c>
       <c r="AK52" s="23"/>
@@ -6365,11 +6365,11 @@
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="117"/>
+      <c r="E53" s="195"/>
+      <c r="F53" s="196"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="197"/>
       <c r="J53" s="61">
         <v>16</v>
       </c>
@@ -6392,7 +6392,7 @@
       <c r="Y53" s="87">
         <v>39</v>
       </c>
-      <c r="Z53" s="251">
+      <c r="Z53" s="105">
         <v>39</v>
       </c>
       <c r="AA53" s="20"/>
@@ -6401,7 +6401,7 @@
       <c r="AD53" s="15">
         <v>79</v>
       </c>
-      <c r="AE53" s="251">
+      <c r="AE53" s="105">
         <v>79</v>
       </c>
       <c r="AF53" s="15"/>
@@ -6410,7 +6410,7 @@
       <c r="AI53" s="15">
         <v>119</v>
       </c>
-      <c r="AJ53" s="251">
+      <c r="AJ53" s="105">
         <v>119</v>
       </c>
       <c r="AK53" s="23"/>
@@ -6422,11 +6422,11 @@
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="117"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="197"/>
       <c r="J54" s="61">
         <v>17</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="Y54" s="95">
         <v>40</v>
       </c>
-      <c r="Z54" s="252">
+      <c r="Z54" s="106">
         <v>40</v>
       </c>
       <c r="AA54" s="21"/>
@@ -6458,7 +6458,7 @@
       <c r="AD54" s="98">
         <v>80</v>
       </c>
-      <c r="AE54" s="252">
+      <c r="AE54" s="106">
         <v>80</v>
       </c>
       <c r="AF54" s="98"/>
@@ -6467,7 +6467,7 @@
       <c r="AI54" s="98">
         <v>120</v>
       </c>
-      <c r="AJ54" s="252">
+      <c r="AJ54" s="106">
         <v>120</v>
       </c>
       <c r="AK54" s="99"/>
@@ -6479,11 +6479,11 @@
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="117"/>
+      <c r="E55" s="195"/>
+      <c r="F55" s="196"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="196"/>
+      <c r="I55" s="197"/>
       <c r="J55" s="62">
         <v>18</v>
       </c>
@@ -6498,98 +6498,98 @@
       <c r="S55" s="45"/>
     </row>
     <row r="56" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="185"/>
+      <c r="C56" s="185"/>
+      <c r="D56" s="185"/>
       <c r="E56" s="102"/>
       <c r="F56" s="102"/>
       <c r="G56" s="51"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="210"/>
+      <c r="H56" s="186"/>
+      <c r="I56" s="186"/>
+      <c r="J56" s="186"/>
+      <c r="K56" s="186"/>
+      <c r="L56" s="186"/>
+      <c r="M56" s="186"/>
+      <c r="N56" s="117"/>
       <c r="O56" s="50"/>
       <c r="P56" s="51"/>
       <c r="Q56" s="51"/>
       <c r="R56" s="51"/>
       <c r="S56" s="52"/>
-      <c r="X56" s="121" t="s">
+      <c r="X56" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="Y56" s="122"/>
-      <c r="Z56" s="122"/>
-      <c r="AA56" s="122"/>
-      <c r="AB56" s="123"/>
-      <c r="AC56" s="123"/>
-      <c r="AD56" s="123"/>
-      <c r="AE56" s="123"/>
-      <c r="AF56" s="123"/>
-      <c r="AG56" s="123"/>
-      <c r="AH56" s="123"/>
-      <c r="AI56" s="123"/>
-      <c r="AJ56" s="123"/>
-      <c r="AK56" s="124"/>
+      <c r="Y56" s="221"/>
+      <c r="Z56" s="221"/>
+      <c r="AA56" s="221"/>
+      <c r="AB56" s="107"/>
+      <c r="AC56" s="107"/>
+      <c r="AD56" s="107"/>
+      <c r="AE56" s="107"/>
+      <c r="AF56" s="107"/>
+      <c r="AG56" s="107"/>
+      <c r="AH56" s="107"/>
+      <c r="AI56" s="107"/>
+      <c r="AJ56" s="107"/>
+      <c r="AK56" s="108"/>
     </row>
     <row r="57" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="106"/>
+      <c r="B57" s="214"/>
+      <c r="C57" s="214"/>
+      <c r="D57" s="215"/>
       <c r="E57" s="103"/>
       <c r="F57" s="103"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="108"/>
+      <c r="H57" s="212"/>
+      <c r="I57" s="216"/>
+      <c r="J57" s="216"/>
+      <c r="K57" s="216"/>
+      <c r="L57" s="216"/>
+      <c r="M57" s="216"/>
+      <c r="N57" s="216"/>
       <c r="O57" s="44"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="45"/>
-      <c r="X57" s="110" t="s">
+      <c r="X57" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="Y57" s="111"/>
-      <c r="Z57" s="111"/>
-      <c r="AA57" s="111"/>
-      <c r="AB57" s="112"/>
-      <c r="AC57" s="112"/>
-      <c r="AD57" s="112"/>
-      <c r="AE57" s="112"/>
-      <c r="AF57" s="112"/>
-      <c r="AG57" s="112"/>
-      <c r="AH57" s="112"/>
-      <c r="AI57" s="112"/>
-      <c r="AJ57" s="112"/>
-      <c r="AK57" s="113"/>
+      <c r="Y57" s="218"/>
+      <c r="Z57" s="218"/>
+      <c r="AA57" s="218"/>
+      <c r="AB57" s="109"/>
+      <c r="AC57" s="109"/>
+      <c r="AD57" s="109"/>
+      <c r="AE57" s="109"/>
+      <c r="AF57" s="109"/>
+      <c r="AG57" s="109"/>
+      <c r="AH57" s="109"/>
+      <c r="AI57" s="109"/>
+      <c r="AJ57" s="109"/>
+      <c r="AK57" s="110"/>
     </row>
     <row r="58" spans="1:37" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="114"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
+      <c r="A58" s="219"/>
+      <c r="B58" s="219"/>
+      <c r="C58" s="219"/>
+      <c r="D58" s="219"/>
+      <c r="E58" s="219"/>
+      <c r="F58" s="219"/>
+      <c r="G58" s="219"/>
+      <c r="H58" s="219"/>
+      <c r="I58" s="219"/>
+      <c r="J58" s="219"/>
+      <c r="K58" s="219"/>
+      <c r="L58" s="219"/>
+      <c r="M58" s="219"/>
+      <c r="N58" s="219"/>
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
@@ -6606,28 +6606,79 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="J2:AE2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:AE3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="AD6:AK6"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="H57:N57"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="AB57:AK57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="H56:N56"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="AB56:AK56"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="U39:V40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:K38"/>
+    <mergeCell ref="L36:N38"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AJ14:AK14"/>
@@ -6651,79 +6702,28 @@
     <mergeCell ref="AD8:AK8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="U39:V40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:K38"/>
-    <mergeCell ref="L36:N38"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="H57:N57"/>
-    <mergeCell ref="X57:AA57"/>
-    <mergeCell ref="AB57:AK57"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="H56:N56"/>
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="AB56:AK56"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="AD6:AK6"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="J2:AE2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6756,11 +6756,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S1" s="208" t="s">
+      <c r="S1" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
     </row>
     <row r="2" spans="1:37" s="24" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
@@ -6771,30 +6771,30 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="209" t="s">
+      <c r="J2" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -6803,103 +6803,103 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="123" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123" t="s">
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123" t="s">
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123" t="s">
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="124"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="108"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="164"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="213"/>
-      <c r="U4" s="112" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112" t="s">
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="113"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="110"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -6914,116 +6914,116 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="200"/>
-      <c r="U5" s="201" t="s">
+      <c r="R5" s="121"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="202"/>
-      <c r="W5" s="202"/>
-      <c r="X5" s="202"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
       <c r="Y5" s="90"/>
       <c r="Z5" s="90"/>
       <c r="AA5" s="90"/>
       <c r="AB5" s="90"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="203" t="s">
+      <c r="AD5" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" s="202"/>
-      <c r="AF5" s="202"/>
-      <c r="AG5" s="202"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="125"/>
       <c r="AH5" s="90"/>
       <c r="AI5" s="90"/>
       <c r="AJ5" s="90"/>
       <c r="AK5" s="91"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="187" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="184" t="s">
+      <c r="J6" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="184"/>
+      <c r="K6" s="128"/>
       <c r="L6" s="89"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="187" t="s">
+      <c r="O6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
       <c r="R6" s="89"/>
       <c r="S6" s="32"/>
       <c r="T6" s="33"/>
-      <c r="U6" s="205"/>
-      <c r="V6" s="206"/>
-      <c r="W6" s="206"/>
-      <c r="X6" s="206"/>
-      <c r="Y6" s="206"/>
-      <c r="Z6" s="206"/>
-      <c r="AA6" s="206"/>
-      <c r="AB6" s="206"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193"/>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="193"/>
-      <c r="AJ6" s="193"/>
-      <c r="AK6" s="195"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="135"/>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="182"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="184" t="s">
+      <c r="J7" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="184"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="89"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="182"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="172"/>
       <c r="R7" s="89"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="189" t="s">
+      <c r="U7" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="190"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="190"/>
+      <c r="V7" s="178"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
       <c r="AB7" s="36"/>
       <c r="AC7" s="37"/>
-      <c r="AD7" s="191" t="s">
+      <c r="AD7" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="190"/>
-      <c r="AG7" s="190"/>
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="178"/>
+      <c r="AG7" s="178"/>
       <c r="AH7" s="36"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
@@ -7032,79 +7032,79 @@
     <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30"/>
       <c r="B8" s="89"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="185"/>
-      <c r="J8" s="184" t="s">
+      <c r="D8" s="173"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="174"/>
+      <c r="J8" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="184"/>
+      <c r="K8" s="128"/>
       <c r="L8" s="89"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="185"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="174"/>
       <c r="R8" s="89"/>
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
-      <c r="U8" s="192"/>
-      <c r="V8" s="193"/>
-      <c r="W8" s="193"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="193"/>
-      <c r="AB8" s="193"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
       <c r="AC8" s="39"/>
-      <c r="AD8" s="194"/>
-      <c r="AE8" s="193"/>
-      <c r="AF8" s="193"/>
-      <c r="AG8" s="193"/>
-      <c r="AH8" s="193"/>
-      <c r="AI8" s="193"/>
-      <c r="AJ8" s="193"/>
-      <c r="AK8" s="195"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="134"/>
+      <c r="AJ8" s="134"/>
+      <c r="AK8" s="135"/>
     </row>
     <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="89"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="188"/>
-      <c r="J9" s="184" t="s">
+      <c r="D9" s="175"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="176"/>
+      <c r="J9" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="184"/>
+      <c r="K9" s="128"/>
       <c r="L9" s="89"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="188"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="176"/>
       <c r="R9" s="89"/>
       <c r="S9" s="89"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="189" t="s">
+      <c r="U9" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="178"/>
+      <c r="X9" s="178"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
       <c r="AC9" s="37"/>
-      <c r="AD9" s="170" t="s">
+      <c r="AD9" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="AE9" s="171"/>
-      <c r="AF9" s="171"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="171"/>
-      <c r="AJ9" s="171"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="142"/>
+      <c r="AJ9" s="142"/>
       <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -7117,10 +7117,10 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="172" t="s">
+      <c r="J10" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="172"/>
+      <c r="K10" s="143"/>
       <c r="L10" s="59"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -7130,85 +7130,85 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
       <c r="AC10" s="43"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="174"/>
-      <c r="AF10" s="174"/>
-      <c r="AG10" s="174"/>
-      <c r="AH10" s="174"/>
-      <c r="AI10" s="174"/>
-      <c r="AJ10" s="174"/>
-      <c r="AK10" s="176"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="145"/>
+      <c r="AJ10" s="145"/>
+      <c r="AK10" s="147"/>
     </row>
     <row r="11" spans="1:37" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="140" t="s">
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="140"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="146" t="s">
+      <c r="M12" s="153"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="148"/>
-      <c r="X12" s="238" t="s">
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="161"/>
+      <c r="X12" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="239"/>
-      <c r="Z12" s="239"/>
-      <c r="AA12" s="239"/>
-      <c r="AB12" s="239"/>
-      <c r="AC12" s="239"/>
-      <c r="AD12" s="239"/>
-      <c r="AE12" s="239"/>
-      <c r="AF12" s="239"/>
-      <c r="AG12" s="239"/>
-      <c r="AH12" s="239"/>
-      <c r="AI12" s="239"/>
-      <c r="AJ12" s="239"/>
-      <c r="AK12" s="240"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="163"/>
+      <c r="AI12" s="163"/>
+      <c r="AJ12" s="163"/>
+      <c r="AK12" s="164"/>
     </row>
     <row r="13" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="143"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="156"/>
       <c r="O13" s="3" t="s">
         <v>67</v>
       </c>
@@ -7224,109 +7224,109 @@
       <c r="S13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="242"/>
-      <c r="Z13" s="242"/>
-      <c r="AA13" s="242"/>
-      <c r="AB13" s="242"/>
-      <c r="AC13" s="242"/>
-      <c r="AD13" s="242"/>
-      <c r="AE13" s="242"/>
-      <c r="AF13" s="242"/>
-      <c r="AG13" s="242"/>
-      <c r="AH13" s="242"/>
-      <c r="AI13" s="242"/>
-      <c r="AJ13" s="242"/>
-      <c r="AK13" s="243"/>
+      <c r="X13" s="165"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="166"/>
+      <c r="AC13" s="166"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="166"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="166"/>
+      <c r="AI13" s="166"/>
+      <c r="AJ13" s="166"/>
+      <c r="AK13" s="167"/>
     </row>
     <row r="14" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="145"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="158"/>
       <c r="O14" s="44"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="45"/>
-      <c r="X14" s="244" t="s">
+      <c r="X14" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="Y14" s="245"/>
-      <c r="Z14" s="246" t="s">
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AA14" s="247"/>
+      <c r="AA14" s="137"/>
       <c r="AB14" s="17"/>
-      <c r="AC14" s="248" t="s">
+      <c r="AC14" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="AD14" s="245"/>
-      <c r="AE14" s="246" t="s">
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="247"/>
+      <c r="AF14" s="137"/>
       <c r="AG14" s="17"/>
-      <c r="AH14" s="248" t="s">
+      <c r="AH14" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="245"/>
-      <c r="AJ14" s="246" t="s">
+      <c r="AI14" s="139"/>
+      <c r="AJ14" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AK14" s="249"/>
+      <c r="AK14" s="140"/>
     </row>
     <row r="15" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="119" t="s">
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="155" t="s">
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="157" t="s">
+      <c r="K15" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="128" t="s">
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="124"/>
-      <c r="U15" s="129" t="s">
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="108"/>
+      <c r="U15" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="130"/>
+      <c r="V15" s="198"/>
       <c r="X15" s="47"/>
       <c r="Y15" s="94">
         <v>1</v>
       </c>
-      <c r="Z15" s="250">
+      <c r="Z15" s="104">
         <v>1</v>
       </c>
       <c r="AA15" s="18"/>
@@ -7335,7 +7335,7 @@
       <c r="AD15" s="12">
         <v>41</v>
       </c>
-      <c r="AE15" s="250">
+      <c r="AE15" s="104">
         <v>41</v>
       </c>
       <c r="AF15" s="96"/>
@@ -7344,22 +7344,22 @@
       <c r="AI15" s="12">
         <v>81</v>
       </c>
-      <c r="AJ15" s="250">
+      <c r="AJ15" s="104">
         <v>81</v>
       </c>
       <c r="AK15" s="97"/>
     </row>
     <row r="16" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="125"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="156"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="189"/>
       <c r="K16" s="48" t="s">
         <v>7</v>
       </c>
@@ -7387,13 +7387,13 @@
       <c r="S16" s="10">
         <v>5</v>
       </c>
-      <c r="U16" s="131"/>
-      <c r="V16" s="132"/>
+      <c r="U16" s="199"/>
+      <c r="V16" s="200"/>
       <c r="X16" s="49"/>
       <c r="Y16" s="87">
         <v>2</v>
       </c>
-      <c r="Z16" s="251">
+      <c r="Z16" s="105">
         <v>2</v>
       </c>
       <c r="AA16" s="20"/>
@@ -7402,7 +7402,7 @@
       <c r="AD16" s="15">
         <v>42</v>
       </c>
-      <c r="AE16" s="251">
+      <c r="AE16" s="105">
         <v>42</v>
       </c>
       <c r="AF16" s="15"/>
@@ -7411,7 +7411,7 @@
       <c r="AI16" s="15">
         <v>82</v>
       </c>
-      <c r="AJ16" s="251">
+      <c r="AJ16" s="105">
         <v>82</v>
       </c>
       <c r="AK16" s="23"/>
@@ -7423,11 +7423,11 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="135"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="203"/>
       <c r="J17" s="60">
         <v>4</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="Y17" s="87">
         <v>3</v>
       </c>
-      <c r="Z17" s="251">
+      <c r="Z17" s="105">
         <v>3</v>
       </c>
       <c r="AA17" s="20"/>
@@ -7453,7 +7453,7 @@
       <c r="AD17" s="15">
         <v>43</v>
       </c>
-      <c r="AE17" s="251">
+      <c r="AE17" s="105">
         <v>43</v>
       </c>
       <c r="AF17" s="15"/>
@@ -7462,7 +7462,7 @@
       <c r="AI17" s="15">
         <v>83</v>
       </c>
-      <c r="AJ17" s="251">
+      <c r="AJ17" s="105">
         <v>83</v>
       </c>
       <c r="AK17" s="23"/>
@@ -7474,11 +7474,11 @@
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="117"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="197"/>
       <c r="J18" s="61">
         <v>5</v>
       </c>
@@ -7491,17 +7491,17 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="54"/>
-      <c r="U18" s="118" t="s">
+      <c r="U18" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="126" t="s">
+      <c r="V18" s="205" t="s">
         <v>12</v>
       </c>
       <c r="X18" s="49"/>
       <c r="Y18" s="87">
         <v>4</v>
       </c>
-      <c r="Z18" s="251">
+      <c r="Z18" s="105">
         <v>4</v>
       </c>
       <c r="AA18" s="20"/>
@@ -7510,7 +7510,7 @@
       <c r="AD18" s="15">
         <v>44</v>
       </c>
-      <c r="AE18" s="251">
+      <c r="AE18" s="105">
         <v>44</v>
       </c>
       <c r="AF18" s="15"/>
@@ -7519,7 +7519,7 @@
       <c r="AI18" s="15">
         <v>84</v>
       </c>
-      <c r="AJ18" s="251">
+      <c r="AJ18" s="105">
         <v>84</v>
       </c>
       <c r="AK18" s="23"/>
@@ -7531,11 +7531,11 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
       <c r="J19" s="61">
         <v>6</v>
       </c>
@@ -7548,13 +7548,13 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="54"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="127"/>
+      <c r="U19" s="182"/>
+      <c r="V19" s="206"/>
       <c r="X19" s="49"/>
       <c r="Y19" s="87">
         <v>5</v>
       </c>
-      <c r="Z19" s="251">
+      <c r="Z19" s="105">
         <v>5</v>
       </c>
       <c r="AA19" s="20"/>
@@ -7563,7 +7563,7 @@
       <c r="AD19" s="15">
         <v>45</v>
       </c>
-      <c r="AE19" s="251">
+      <c r="AE19" s="105">
         <v>45</v>
       </c>
       <c r="AF19" s="15"/>
@@ -7572,7 +7572,7 @@
       <c r="AI19" s="15">
         <v>85</v>
       </c>
-      <c r="AJ19" s="251">
+      <c r="AJ19" s="105">
         <v>85</v>
       </c>
       <c r="AK19" s="23"/>
@@ -7584,11 +7584,11 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197"/>
       <c r="J20" s="61">
         <v>7</v>
       </c>
@@ -7611,7 +7611,7 @@
       <c r="Y20" s="87">
         <v>6</v>
       </c>
-      <c r="Z20" s="251">
+      <c r="Z20" s="105">
         <v>6</v>
       </c>
       <c r="AA20" s="20"/>
@@ -7620,7 +7620,7 @@
       <c r="AD20" s="15">
         <v>46</v>
       </c>
-      <c r="AE20" s="251">
+      <c r="AE20" s="105">
         <v>46</v>
       </c>
       <c r="AF20" s="15"/>
@@ -7629,7 +7629,7 @@
       <c r="AI20" s="15">
         <v>86</v>
       </c>
-      <c r="AJ20" s="251">
+      <c r="AJ20" s="105">
         <v>86</v>
       </c>
       <c r="AK20" s="23"/>
@@ -7641,11 +7641,11 @@
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="197"/>
       <c r="J21" s="61">
         <v>8</v>
       </c>
@@ -7668,7 +7668,7 @@
       <c r="Y21" s="87">
         <v>7</v>
       </c>
-      <c r="Z21" s="251">
+      <c r="Z21" s="105">
         <v>7</v>
       </c>
       <c r="AA21" s="20"/>
@@ -7677,7 +7677,7 @@
       <c r="AD21" s="15">
         <v>47</v>
       </c>
-      <c r="AE21" s="251">
+      <c r="AE21" s="105">
         <v>47</v>
       </c>
       <c r="AF21" s="15"/>
@@ -7686,7 +7686,7 @@
       <c r="AI21" s="15">
         <v>87</v>
       </c>
-      <c r="AJ21" s="251">
+      <c r="AJ21" s="105">
         <v>87</v>
       </c>
       <c r="AK21" s="23"/>
@@ -7698,11 +7698,11 @@
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="197"/>
       <c r="J22" s="61">
         <v>9</v>
       </c>
@@ -7725,7 +7725,7 @@
       <c r="Y22" s="87">
         <v>8</v>
       </c>
-      <c r="Z22" s="251">
+      <c r="Z22" s="105">
         <v>8</v>
       </c>
       <c r="AA22" s="20"/>
@@ -7734,7 +7734,7 @@
       <c r="AD22" s="15">
         <v>48</v>
       </c>
-      <c r="AE22" s="251">
+      <c r="AE22" s="105">
         <v>48</v>
       </c>
       <c r="AF22" s="15"/>
@@ -7743,7 +7743,7 @@
       <c r="AI22" s="15">
         <v>88</v>
       </c>
-      <c r="AJ22" s="251">
+      <c r="AJ22" s="105">
         <v>88</v>
       </c>
       <c r="AK22" s="23"/>
@@ -7755,11 +7755,11 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="197"/>
       <c r="J23" s="61">
         <v>10</v>
       </c>
@@ -7782,7 +7782,7 @@
       <c r="Y23" s="87">
         <v>9</v>
       </c>
-      <c r="Z23" s="251">
+      <c r="Z23" s="105">
         <v>9</v>
       </c>
       <c r="AA23" s="20"/>
@@ -7791,7 +7791,7 @@
       <c r="AD23" s="15">
         <v>49</v>
       </c>
-      <c r="AE23" s="251">
+      <c r="AE23" s="105">
         <v>49</v>
       </c>
       <c r="AF23" s="15"/>
@@ -7800,7 +7800,7 @@
       <c r="AI23" s="15">
         <v>89</v>
       </c>
-      <c r="AJ23" s="251">
+      <c r="AJ23" s="105">
         <v>89</v>
       </c>
       <c r="AK23" s="23"/>
@@ -7812,11 +7812,11 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="117"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
       <c r="J24" s="61">
         <v>11</v>
       </c>
@@ -7833,7 +7833,7 @@
       <c r="Y24" s="87">
         <v>10</v>
       </c>
-      <c r="Z24" s="251">
+      <c r="Z24" s="105">
         <v>10</v>
       </c>
       <c r="AA24" s="20"/>
@@ -7842,7 +7842,7 @@
       <c r="AD24" s="15">
         <v>50</v>
       </c>
-      <c r="AE24" s="251">
+      <c r="AE24" s="105">
         <v>50</v>
       </c>
       <c r="AF24" s="15"/>
@@ -7851,7 +7851,7 @@
       <c r="AI24" s="15">
         <v>90</v>
       </c>
-      <c r="AJ24" s="251">
+      <c r="AJ24" s="105">
         <v>90</v>
       </c>
       <c r="AK24" s="23"/>
@@ -7863,11 +7863,11 @@
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="117"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="197"/>
       <c r="J25" s="61">
         <v>12</v>
       </c>
@@ -7880,17 +7880,17 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="54"/>
-      <c r="U25" s="118" t="s">
+      <c r="U25" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="126" t="s">
+      <c r="V25" s="205" t="s">
         <v>14</v>
       </c>
       <c r="X25" s="49"/>
       <c r="Y25" s="87">
         <v>11</v>
       </c>
-      <c r="Z25" s="251">
+      <c r="Z25" s="105">
         <v>11</v>
       </c>
       <c r="AA25" s="20"/>
@@ -7899,7 +7899,7 @@
       <c r="AD25" s="15">
         <v>51</v>
       </c>
-      <c r="AE25" s="251">
+      <c r="AE25" s="105">
         <v>51</v>
       </c>
       <c r="AF25" s="15"/>
@@ -7908,7 +7908,7 @@
       <c r="AI25" s="15">
         <v>91</v>
       </c>
-      <c r="AJ25" s="251">
+      <c r="AJ25" s="105">
         <v>91</v>
       </c>
       <c r="AK25" s="23"/>
@@ -7920,11 +7920,11 @@
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="117"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="197"/>
       <c r="J26" s="61">
         <v>13</v>
       </c>
@@ -7937,13 +7937,13 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="54"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="127"/>
+      <c r="U26" s="182"/>
+      <c r="V26" s="206"/>
       <c r="X26" s="49"/>
       <c r="Y26" s="87">
         <v>12</v>
       </c>
-      <c r="Z26" s="251">
+      <c r="Z26" s="105">
         <v>12</v>
       </c>
       <c r="AA26" s="20"/>
@@ -7952,7 +7952,7 @@
       <c r="AD26" s="15">
         <v>52</v>
       </c>
-      <c r="AE26" s="251">
+      <c r="AE26" s="105">
         <v>52</v>
       </c>
       <c r="AF26" s="15"/>
@@ -7961,7 +7961,7 @@
       <c r="AI26" s="15">
         <v>92</v>
       </c>
-      <c r="AJ26" s="251">
+      <c r="AJ26" s="105">
         <v>92</v>
       </c>
       <c r="AK26" s="23"/>
@@ -7976,11 +7976,11 @@
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
       <c r="J27" s="61">
         <v>14</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="Y27" s="87">
         <v>13</v>
       </c>
-      <c r="Z27" s="251">
+      <c r="Z27" s="105">
         <v>13</v>
       </c>
       <c r="AA27" s="20"/>
@@ -8012,7 +8012,7 @@
       <c r="AD27" s="15">
         <v>53</v>
       </c>
-      <c r="AE27" s="251">
+      <c r="AE27" s="105">
         <v>53</v>
       </c>
       <c r="AF27" s="15"/>
@@ -8021,7 +8021,7 @@
       <c r="AI27" s="15">
         <v>93</v>
       </c>
-      <c r="AJ27" s="251">
+      <c r="AJ27" s="105">
         <v>93</v>
       </c>
       <c r="AK27" s="23"/>
@@ -8033,11 +8033,11 @@
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="117"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="197"/>
       <c r="J28" s="61">
         <v>15</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="Y28" s="87">
         <v>14</v>
       </c>
-      <c r="Z28" s="251">
+      <c r="Z28" s="105">
         <v>14</v>
       </c>
       <c r="AA28" s="20"/>
@@ -8069,7 +8069,7 @@
       <c r="AD28" s="15">
         <v>54</v>
       </c>
-      <c r="AE28" s="251">
+      <c r="AE28" s="105">
         <v>54</v>
       </c>
       <c r="AF28" s="15"/>
@@ -8078,7 +8078,7 @@
       <c r="AI28" s="15">
         <v>94</v>
       </c>
-      <c r="AJ28" s="251">
+      <c r="AJ28" s="105">
         <v>94</v>
       </c>
       <c r="AK28" s="23"/>
@@ -8090,11 +8090,11 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="117"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="197"/>
       <c r="J29" s="61">
         <v>16</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="Y29" s="87">
         <v>15</v>
       </c>
-      <c r="Z29" s="251">
+      <c r="Z29" s="105">
         <v>15</v>
       </c>
       <c r="AA29" s="20"/>
@@ -8126,7 +8126,7 @@
       <c r="AD29" s="15">
         <v>55</v>
       </c>
-      <c r="AE29" s="251">
+      <c r="AE29" s="105">
         <v>55</v>
       </c>
       <c r="AF29" s="15"/>
@@ -8135,7 +8135,7 @@
       <c r="AI29" s="15">
         <v>95</v>
       </c>
-      <c r="AJ29" s="251">
+      <c r="AJ29" s="105">
         <v>95</v>
       </c>
       <c r="AK29" s="23"/>
@@ -8147,11 +8147,11 @@
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="117"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="197"/>
       <c r="J30" s="61">
         <v>17</v>
       </c>
@@ -8174,7 +8174,7 @@
       <c r="Y30" s="87">
         <v>16</v>
       </c>
-      <c r="Z30" s="251">
+      <c r="Z30" s="105">
         <v>16</v>
       </c>
       <c r="AA30" s="20"/>
@@ -8183,7 +8183,7 @@
       <c r="AD30" s="15">
         <v>56</v>
       </c>
-      <c r="AE30" s="251">
+      <c r="AE30" s="105">
         <v>56</v>
       </c>
       <c r="AF30" s="15"/>
@@ -8192,7 +8192,7 @@
       <c r="AI30" s="15">
         <v>96</v>
       </c>
-      <c r="AJ30" s="251">
+      <c r="AJ30" s="105">
         <v>96</v>
       </c>
       <c r="AK30" s="23"/>
@@ -8204,11 +8204,11 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="117"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="197"/>
       <c r="J31" s="62">
         <v>18</v>
       </c>
@@ -8225,7 +8225,7 @@
       <c r="Y31" s="87">
         <v>17</v>
       </c>
-      <c r="Z31" s="251">
+      <c r="Z31" s="105">
         <v>17</v>
       </c>
       <c r="AA31" s="20"/>
@@ -8234,7 +8234,7 @@
       <c r="AD31" s="15">
         <v>57</v>
       </c>
-      <c r="AE31" s="251">
+      <c r="AE31" s="105">
         <v>57</v>
       </c>
       <c r="AF31" s="15"/>
@@ -8243,28 +8243,28 @@
       <c r="AI31" s="15">
         <v>97</v>
       </c>
-      <c r="AJ31" s="251">
+      <c r="AJ31" s="105">
         <v>97</v>
       </c>
       <c r="AK31" s="23"/>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="208"/>
       <c r="E32" s="102"/>
       <c r="F32" s="102"/>
       <c r="G32" s="51"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
       <c r="O32" s="51"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="51"/>
@@ -8274,7 +8274,7 @@
       <c r="Y32" s="87">
         <v>18</v>
       </c>
-      <c r="Z32" s="251">
+      <c r="Z32" s="105">
         <v>18</v>
       </c>
       <c r="AA32" s="20"/>
@@ -8283,7 +8283,7 @@
       <c r="AD32" s="15">
         <v>58</v>
       </c>
-      <c r="AE32" s="251">
+      <c r="AE32" s="105">
         <v>58</v>
       </c>
       <c r="AF32" s="15"/>
@@ -8292,28 +8292,28 @@
       <c r="AI32" s="15">
         <v>98</v>
       </c>
-      <c r="AJ32" s="251">
+      <c r="AJ32" s="105">
         <v>98</v>
       </c>
       <c r="AK32" s="23"/>
     </row>
     <row r="33" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="162" t="s">
+      <c r="A33" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="211"/>
       <c r="E33" s="103"/>
       <c r="F33" s="103"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -8323,7 +8323,7 @@
       <c r="Y33" s="87">
         <v>19</v>
       </c>
-      <c r="Z33" s="251">
+      <c r="Z33" s="105">
         <v>19</v>
       </c>
       <c r="AA33" s="20"/>
@@ -8332,7 +8332,7 @@
       <c r="AD33" s="15">
         <v>59</v>
       </c>
-      <c r="AE33" s="251">
+      <c r="AE33" s="105">
         <v>59</v>
       </c>
       <c r="AF33" s="15"/>
@@ -8341,7 +8341,7 @@
       <c r="AI33" s="15">
         <v>99</v>
       </c>
-      <c r="AJ33" s="251">
+      <c r="AJ33" s="105">
         <v>99</v>
       </c>
       <c r="AK33" s="23"/>
@@ -8370,7 +8370,7 @@
       <c r="Y34" s="87">
         <v>20</v>
       </c>
-      <c r="Z34" s="251">
+      <c r="Z34" s="105">
         <v>20</v>
       </c>
       <c r="AA34" s="20"/>
@@ -8379,7 +8379,7 @@
       <c r="AD34" s="15">
         <v>60</v>
       </c>
-      <c r="AE34" s="251">
+      <c r="AE34" s="105">
         <v>60</v>
       </c>
       <c r="AF34" s="15"/>
@@ -8388,7 +8388,7 @@
       <c r="AI34" s="15">
         <v>100</v>
       </c>
-      <c r="AJ34" s="251">
+      <c r="AJ34" s="105">
         <v>100</v>
       </c>
       <c r="AK34" s="23"/>
@@ -8398,7 +8398,7 @@
       <c r="Y35" s="87">
         <v>21</v>
       </c>
-      <c r="Z35" s="251">
+      <c r="Z35" s="105">
         <v>21</v>
       </c>
       <c r="AA35" s="20"/>
@@ -8407,7 +8407,7 @@
       <c r="AD35" s="15">
         <v>61</v>
       </c>
-      <c r="AE35" s="251">
+      <c r="AE35" s="105">
         <v>61</v>
       </c>
       <c r="AF35" s="15"/>
@@ -8416,44 +8416,44 @@
       <c r="AI35" s="15">
         <v>101</v>
       </c>
-      <c r="AJ35" s="251">
+      <c r="AJ35" s="105">
         <v>101</v>
       </c>
       <c r="AK35" s="23"/>
     </row>
     <row r="36" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="129" t="s">
+      <c r="A36" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137" t="s">
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="140" t="s">
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="140"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="146" t="s">
+      <c r="M36" s="153"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="148"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="160"/>
+      <c r="S36" s="161"/>
       <c r="X36" s="49"/>
       <c r="Y36" s="87">
         <v>22</v>
       </c>
-      <c r="Z36" s="251">
+      <c r="Z36" s="105">
         <v>22</v>
       </c>
       <c r="AA36" s="20"/>
@@ -8462,7 +8462,7 @@
       <c r="AD36" s="15">
         <v>62</v>
       </c>
-      <c r="AE36" s="251">
+      <c r="AE36" s="105">
         <v>62</v>
       </c>
       <c r="AF36" s="15"/>
@@ -8471,28 +8471,28 @@
       <c r="AI36" s="15">
         <v>102</v>
       </c>
-      <c r="AJ36" s="251">
+      <c r="AJ36" s="105">
         <v>102</v>
       </c>
       <c r="AK36" s="23"/>
     </row>
     <row r="37" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="150"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="142"/>
-      <c r="M37" s="142"/>
-      <c r="N37" s="143"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="156"/>
       <c r="O37" s="3" t="s">
         <v>67</v>
       </c>
@@ -8512,7 +8512,7 @@
       <c r="Y37" s="87">
         <v>23</v>
       </c>
-      <c r="Z37" s="251">
+      <c r="Z37" s="105">
         <v>23</v>
       </c>
       <c r="AA37" s="20"/>
@@ -8521,7 +8521,7 @@
       <c r="AD37" s="15">
         <v>63</v>
       </c>
-      <c r="AE37" s="251">
+      <c r="AE37" s="105">
         <v>63</v>
       </c>
       <c r="AF37" s="15"/>
@@ -8530,7 +8530,7 @@
       <c r="AI37" s="15">
         <v>103</v>
       </c>
-      <c r="AJ37" s="251">
+      <c r="AJ37" s="105">
         <v>103</v>
       </c>
       <c r="AK37" s="23"/>
@@ -8539,17 +8539,17 @@
       <c r="A38" s="100"/>
       <c r="B38" s="101"/>
       <c r="C38" s="101"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="145"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="158"/>
       <c r="O38" s="44"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
@@ -8559,7 +8559,7 @@
       <c r="Y38" s="87">
         <v>24</v>
       </c>
-      <c r="Z38" s="251">
+      <c r="Z38" s="105">
         <v>24</v>
       </c>
       <c r="AA38" s="20"/>
@@ -8568,7 +8568,7 @@
       <c r="AD38" s="15">
         <v>64</v>
       </c>
-      <c r="AE38" s="251">
+      <c r="AE38" s="105">
         <v>64</v>
       </c>
       <c r="AF38" s="15"/>
@@ -8577,52 +8577,52 @@
       <c r="AI38" s="15">
         <v>104</v>
       </c>
-      <c r="AJ38" s="251">
+      <c r="AJ38" s="105">
         <v>104</v>
       </c>
       <c r="AK38" s="23"/>
     </row>
     <row r="39" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="152" t="s">
+      <c r="B39" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="119" t="s">
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="155" t="s">
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="157" t="s">
+      <c r="K39" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="159"/>
-      <c r="O39" s="128" t="s">
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="192"/>
+      <c r="O39" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="124"/>
-      <c r="U39" s="129" t="s">
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="108"/>
+      <c r="U39" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="V39" s="130"/>
+      <c r="V39" s="198"/>
       <c r="X39" s="49"/>
       <c r="Y39" s="87">
         <v>25</v>
       </c>
-      <c r="Z39" s="251">
+      <c r="Z39" s="105">
         <v>25</v>
       </c>
       <c r="AA39" s="20"/>
@@ -8631,7 +8631,7 @@
       <c r="AD39" s="15">
         <v>65</v>
       </c>
-      <c r="AE39" s="251">
+      <c r="AE39" s="105">
         <v>65</v>
       </c>
       <c r="AF39" s="15"/>
@@ -8640,22 +8640,22 @@
       <c r="AI39" s="15">
         <v>105</v>
       </c>
-      <c r="AJ39" s="251">
+      <c r="AJ39" s="105">
         <v>105</v>
       </c>
       <c r="AK39" s="23"/>
     </row>
     <row r="40" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="156"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="189"/>
       <c r="K40" s="48" t="s">
         <v>7</v>
       </c>
@@ -8683,13 +8683,13 @@
       <c r="S40" s="10">
         <v>5</v>
       </c>
-      <c r="U40" s="131"/>
-      <c r="V40" s="132"/>
+      <c r="U40" s="199"/>
+      <c r="V40" s="200"/>
       <c r="X40" s="49"/>
       <c r="Y40" s="87">
         <v>26</v>
       </c>
-      <c r="Z40" s="251">
+      <c r="Z40" s="105">
         <v>26</v>
       </c>
       <c r="AA40" s="20"/>
@@ -8698,7 +8698,7 @@
       <c r="AD40" s="15">
         <v>66</v>
       </c>
-      <c r="AE40" s="251">
+      <c r="AE40" s="105">
         <v>66</v>
       </c>
       <c r="AF40" s="15"/>
@@ -8707,7 +8707,7 @@
       <c r="AI40" s="15">
         <v>106</v>
       </c>
-      <c r="AJ40" s="251">
+      <c r="AJ40" s="105">
         <v>106</v>
       </c>
       <c r="AK40" s="23"/>
@@ -8719,13 +8719,13 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="133" t="s">
+      <c r="E41" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="135"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
       <c r="J41" s="60">
         <v>4</v>
       </c>
@@ -8742,7 +8742,7 @@
       <c r="Y41" s="87">
         <v>27</v>
       </c>
-      <c r="Z41" s="251">
+      <c r="Z41" s="105">
         <v>27</v>
       </c>
       <c r="AA41" s="20"/>
@@ -8751,7 +8751,7 @@
       <c r="AD41" s="15">
         <v>67</v>
       </c>
-      <c r="AE41" s="251">
+      <c r="AE41" s="105">
         <v>67</v>
       </c>
       <c r="AF41" s="15"/>
@@ -8760,7 +8760,7 @@
       <c r="AI41" s="15">
         <v>107</v>
       </c>
-      <c r="AJ41" s="251">
+      <c r="AJ41" s="105">
         <v>107</v>
       </c>
       <c r="AK41" s="23"/>
@@ -8772,13 +8772,13 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="115" t="s">
+      <c r="E42" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="117"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="197"/>
       <c r="J42" s="61">
         <v>5</v>
       </c>
@@ -8791,17 +8791,17 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="54"/>
-      <c r="U42" s="118" t="s">
+      <c r="U42" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="126" t="s">
+      <c r="V42" s="205" t="s">
         <v>12</v>
       </c>
       <c r="X42" s="49"/>
       <c r="Y42" s="87">
         <v>28</v>
       </c>
-      <c r="Z42" s="251">
+      <c r="Z42" s="105">
         <v>28</v>
       </c>
       <c r="AA42" s="20"/>
@@ -8810,7 +8810,7 @@
       <c r="AD42" s="15">
         <v>68</v>
       </c>
-      <c r="AE42" s="251">
+      <c r="AE42" s="105">
         <v>68</v>
       </c>
       <c r="AF42" s="15"/>
@@ -8819,7 +8819,7 @@
       <c r="AI42" s="15">
         <v>108</v>
       </c>
-      <c r="AJ42" s="251">
+      <c r="AJ42" s="105">
         <v>108</v>
       </c>
       <c r="AK42" s="23"/>
@@ -8831,13 +8831,13 @@
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="115" t="s">
+      <c r="E43" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="117"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="197"/>
       <c r="J43" s="61">
         <v>6</v>
       </c>
@@ -8850,13 +8850,13 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="54"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="127"/>
+      <c r="U43" s="182"/>
+      <c r="V43" s="206"/>
       <c r="X43" s="49"/>
       <c r="Y43" s="87">
         <v>29</v>
       </c>
-      <c r="Z43" s="251">
+      <c r="Z43" s="105">
         <v>29</v>
       </c>
       <c r="AA43" s="20"/>
@@ -8865,7 +8865,7 @@
       <c r="AD43" s="15">
         <v>69</v>
       </c>
-      <c r="AE43" s="251">
+      <c r="AE43" s="105">
         <v>69</v>
       </c>
       <c r="AF43" s="15"/>
@@ -8874,7 +8874,7 @@
       <c r="AI43" s="15">
         <v>109</v>
       </c>
-      <c r="AJ43" s="251">
+      <c r="AJ43" s="105">
         <v>109</v>
       </c>
       <c r="AK43" s="23"/>
@@ -8886,13 +8886,13 @@
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="115" t="s">
+      <c r="E44" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="117"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="197"/>
       <c r="J44" s="61">
         <v>7</v>
       </c>
@@ -8915,7 +8915,7 @@
       <c r="Y44" s="87">
         <v>30</v>
       </c>
-      <c r="Z44" s="251">
+      <c r="Z44" s="105">
         <v>30</v>
       </c>
       <c r="AA44" s="20"/>
@@ -8924,7 +8924,7 @@
       <c r="AD44" s="15">
         <v>70</v>
       </c>
-      <c r="AE44" s="251">
+      <c r="AE44" s="105">
         <v>70</v>
       </c>
       <c r="AF44" s="15"/>
@@ -8933,7 +8933,7 @@
       <c r="AI44" s="15">
         <v>110</v>
       </c>
-      <c r="AJ44" s="251">
+      <c r="AJ44" s="105">
         <v>110</v>
       </c>
       <c r="AK44" s="23"/>
@@ -8945,13 +8945,13 @@
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="115" t="s">
+      <c r="E45" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="117"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="197"/>
       <c r="J45" s="61">
         <v>8</v>
       </c>
@@ -8974,7 +8974,7 @@
       <c r="Y45" s="87">
         <v>31</v>
       </c>
-      <c r="Z45" s="251">
+      <c r="Z45" s="105">
         <v>31</v>
       </c>
       <c r="AA45" s="20"/>
@@ -8983,7 +8983,7 @@
       <c r="AD45" s="15">
         <v>71</v>
       </c>
-      <c r="AE45" s="251">
+      <c r="AE45" s="105">
         <v>71</v>
       </c>
       <c r="AF45" s="15"/>
@@ -8992,7 +8992,7 @@
       <c r="AI45" s="15">
         <v>111</v>
       </c>
-      <c r="AJ45" s="251">
+      <c r="AJ45" s="105">
         <v>111</v>
       </c>
       <c r="AK45" s="23"/>
@@ -9004,13 +9004,13 @@
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="115" t="s">
+      <c r="E46" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="117"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="197"/>
       <c r="J46" s="61">
         <v>9</v>
       </c>
@@ -9033,7 +9033,7 @@
       <c r="Y46" s="87">
         <v>32</v>
       </c>
-      <c r="Z46" s="251">
+      <c r="Z46" s="105">
         <v>32</v>
       </c>
       <c r="AA46" s="20"/>
@@ -9042,7 +9042,7 @@
       <c r="AD46" s="15">
         <v>72</v>
       </c>
-      <c r="AE46" s="251">
+      <c r="AE46" s="105">
         <v>72</v>
       </c>
       <c r="AF46" s="15"/>
@@ -9051,7 +9051,7 @@
       <c r="AI46" s="15">
         <v>112</v>
       </c>
-      <c r="AJ46" s="251">
+      <c r="AJ46" s="105">
         <v>112</v>
       </c>
       <c r="AK46" s="23"/>
@@ -9063,13 +9063,13 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="115" t="s">
+      <c r="E47" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="117"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="197"/>
       <c r="J47" s="61">
         <v>10</v>
       </c>
@@ -9092,7 +9092,7 @@
       <c r="Y47" s="87">
         <v>33</v>
       </c>
-      <c r="Z47" s="251">
+      <c r="Z47" s="105">
         <v>33</v>
       </c>
       <c r="AA47" s="20"/>
@@ -9101,7 +9101,7 @@
       <c r="AD47" s="15">
         <v>73</v>
       </c>
-      <c r="AE47" s="251">
+      <c r="AE47" s="105">
         <v>73</v>
       </c>
       <c r="AF47" s="15"/>
@@ -9110,7 +9110,7 @@
       <c r="AI47" s="15">
         <v>113</v>
       </c>
-      <c r="AJ47" s="251">
+      <c r="AJ47" s="105">
         <v>113</v>
       </c>
       <c r="AK47" s="23"/>
@@ -9122,13 +9122,13 @@
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="115" t="s">
+      <c r="E48" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="117"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
+      <c r="I48" s="197"/>
       <c r="J48" s="61">
         <v>11</v>
       </c>
@@ -9145,7 +9145,7 @@
       <c r="Y48" s="87">
         <v>34</v>
       </c>
-      <c r="Z48" s="251">
+      <c r="Z48" s="105">
         <v>34</v>
       </c>
       <c r="AA48" s="20"/>
@@ -9154,7 +9154,7 @@
       <c r="AD48" s="15">
         <v>74</v>
       </c>
-      <c r="AE48" s="251">
+      <c r="AE48" s="105">
         <v>74</v>
       </c>
       <c r="AF48" s="15"/>
@@ -9163,7 +9163,7 @@
       <c r="AI48" s="15">
         <v>114</v>
       </c>
-      <c r="AJ48" s="251">
+      <c r="AJ48" s="105">
         <v>114</v>
       </c>
       <c r="AK48" s="23"/>
@@ -9175,13 +9175,13 @@
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="115" t="s">
+      <c r="E49" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="117"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="197"/>
       <c r="J49" s="61">
         <v>12</v>
       </c>
@@ -9194,17 +9194,17 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
       <c r="S49" s="54"/>
-      <c r="U49" s="118" t="s">
+      <c r="U49" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="V49" s="126" t="s">
+      <c r="V49" s="205" t="s">
         <v>14</v>
       </c>
       <c r="X49" s="49"/>
       <c r="Y49" s="87">
         <v>35</v>
       </c>
-      <c r="Z49" s="251">
+      <c r="Z49" s="105">
         <v>35</v>
       </c>
       <c r="AA49" s="20"/>
@@ -9213,7 +9213,7 @@
       <c r="AD49" s="15">
         <v>75</v>
       </c>
-      <c r="AE49" s="251">
+      <c r="AE49" s="105">
         <v>75</v>
       </c>
       <c r="AF49" s="15"/>
@@ -9222,7 +9222,7 @@
       <c r="AI49" s="15">
         <v>115</v>
       </c>
-      <c r="AJ49" s="251">
+      <c r="AJ49" s="105">
         <v>115</v>
       </c>
       <c r="AK49" s="23"/>
@@ -9234,13 +9234,13 @@
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="115" t="s">
+      <c r="E50" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="117"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="197"/>
       <c r="J50" s="61">
         <v>13</v>
       </c>
@@ -9253,13 +9253,13 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
       <c r="S50" s="54"/>
-      <c r="U50" s="125"/>
-      <c r="V50" s="127"/>
+      <c r="U50" s="182"/>
+      <c r="V50" s="206"/>
       <c r="X50" s="49"/>
       <c r="Y50" s="87">
         <v>36</v>
       </c>
-      <c r="Z50" s="251">
+      <c r="Z50" s="105">
         <v>36</v>
       </c>
       <c r="AA50" s="20"/>
@@ -9268,7 +9268,7 @@
       <c r="AD50" s="15">
         <v>76</v>
       </c>
-      <c r="AE50" s="251">
+      <c r="AE50" s="105">
         <v>76</v>
       </c>
       <c r="AF50" s="15"/>
@@ -9277,7 +9277,7 @@
       <c r="AI50" s="15">
         <v>116</v>
       </c>
-      <c r="AJ50" s="251">
+      <c r="AJ50" s="105">
         <v>116</v>
       </c>
       <c r="AK50" s="23"/>
@@ -9289,13 +9289,13 @@
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="115" t="s">
+      <c r="E51" s="195" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="117"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="197"/>
       <c r="J51" s="61">
         <v>14</v>
       </c>
@@ -9318,7 +9318,7 @@
       <c r="Y51" s="87">
         <v>37</v>
       </c>
-      <c r="Z51" s="251">
+      <c r="Z51" s="105">
         <v>37</v>
       </c>
       <c r="AA51" s="20"/>
@@ -9327,7 +9327,7 @@
       <c r="AD51" s="15">
         <v>77</v>
       </c>
-      <c r="AE51" s="251">
+      <c r="AE51" s="105">
         <v>77</v>
       </c>
       <c r="AF51" s="15"/>
@@ -9336,7 +9336,7 @@
       <c r="AI51" s="15">
         <v>117</v>
       </c>
-      <c r="AJ51" s="251">
+      <c r="AJ51" s="105">
         <v>117</v>
       </c>
       <c r="AK51" s="23"/>
@@ -9348,13 +9348,13 @@
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="115" t="s">
+      <c r="E52" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="117"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="197"/>
       <c r="J52" s="61">
         <v>15</v>
       </c>
@@ -9377,7 +9377,7 @@
       <c r="Y52" s="87">
         <v>38</v>
       </c>
-      <c r="Z52" s="251">
+      <c r="Z52" s="105">
         <v>38</v>
       </c>
       <c r="AA52" s="20"/>
@@ -9386,7 +9386,7 @@
       <c r="AD52" s="15">
         <v>78</v>
       </c>
-      <c r="AE52" s="251">
+      <c r="AE52" s="105">
         <v>78</v>
       </c>
       <c r="AF52" s="15"/>
@@ -9395,7 +9395,7 @@
       <c r="AI52" s="15">
         <v>118</v>
       </c>
-      <c r="AJ52" s="251">
+      <c r="AJ52" s="105">
         <v>118</v>
       </c>
       <c r="AK52" s="23"/>
@@ -9407,13 +9407,13 @@
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="117"/>
+      <c r="F53" s="196"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="197"/>
       <c r="J53" s="61">
         <v>16</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="Y53" s="87">
         <v>39</v>
       </c>
-      <c r="Z53" s="251">
+      <c r="Z53" s="105">
         <v>39</v>
       </c>
       <c r="AA53" s="20"/>
@@ -9445,7 +9445,7 @@
       <c r="AD53" s="15">
         <v>79</v>
       </c>
-      <c r="AE53" s="251">
+      <c r="AE53" s="105">
         <v>79</v>
       </c>
       <c r="AF53" s="15"/>
@@ -9454,7 +9454,7 @@
       <c r="AI53" s="15">
         <v>119</v>
       </c>
-      <c r="AJ53" s="251">
+      <c r="AJ53" s="105">
         <v>119</v>
       </c>
       <c r="AK53" s="23"/>
@@ -9466,13 +9466,13 @@
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="115" t="s">
+      <c r="E54" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="117"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="197"/>
       <c r="J54" s="61">
         <v>17</v>
       </c>
@@ -9495,7 +9495,7 @@
       <c r="Y54" s="95">
         <v>40</v>
       </c>
-      <c r="Z54" s="252">
+      <c r="Z54" s="106">
         <v>40</v>
       </c>
       <c r="AA54" s="21"/>
@@ -9504,7 +9504,7 @@
       <c r="AD54" s="98">
         <v>80</v>
       </c>
-      <c r="AE54" s="252">
+      <c r="AE54" s="106">
         <v>80</v>
       </c>
       <c r="AF54" s="98"/>
@@ -9513,7 +9513,7 @@
       <c r="AI54" s="98">
         <v>120</v>
       </c>
-      <c r="AJ54" s="252">
+      <c r="AJ54" s="106">
         <v>120</v>
       </c>
       <c r="AK54" s="99"/>
@@ -9525,13 +9525,13 @@
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="115" t="s">
+      <c r="E55" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="117"/>
+      <c r="F55" s="196"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="196"/>
+      <c r="I55" s="197"/>
       <c r="J55" s="62">
         <v>18</v>
       </c>
@@ -9546,98 +9546,98 @@
       <c r="S55" s="45"/>
     </row>
     <row r="56" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="185"/>
+      <c r="C56" s="185"/>
+      <c r="D56" s="185"/>
       <c r="E56" s="102"/>
       <c r="F56" s="102"/>
       <c r="G56" s="51"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
+      <c r="H56" s="186"/>
+      <c r="I56" s="186"/>
+      <c r="J56" s="186"/>
+      <c r="K56" s="186"/>
+      <c r="L56" s="186"/>
+      <c r="M56" s="186"/>
+      <c r="N56" s="186"/>
       <c r="O56" s="51"/>
       <c r="P56" s="51"/>
       <c r="Q56" s="51"/>
       <c r="R56" s="51"/>
       <c r="S56" s="52"/>
-      <c r="X56" s="121" t="s">
+      <c r="X56" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="Y56" s="122"/>
-      <c r="Z56" s="122"/>
-      <c r="AA56" s="122"/>
-      <c r="AB56" s="123"/>
-      <c r="AC56" s="123"/>
-      <c r="AD56" s="123"/>
-      <c r="AE56" s="123"/>
-      <c r="AF56" s="123"/>
-      <c r="AG56" s="123"/>
-      <c r="AH56" s="123"/>
-      <c r="AI56" s="123"/>
-      <c r="AJ56" s="123"/>
-      <c r="AK56" s="124"/>
+      <c r="Y56" s="221"/>
+      <c r="Z56" s="221"/>
+      <c r="AA56" s="221"/>
+      <c r="AB56" s="107"/>
+      <c r="AC56" s="107"/>
+      <c r="AD56" s="107"/>
+      <c r="AE56" s="107"/>
+      <c r="AF56" s="107"/>
+      <c r="AG56" s="107"/>
+      <c r="AH56" s="107"/>
+      <c r="AI56" s="107"/>
+      <c r="AJ56" s="107"/>
+      <c r="AK56" s="108"/>
     </row>
     <row r="57" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="106"/>
+      <c r="B57" s="214"/>
+      <c r="C57" s="214"/>
+      <c r="D57" s="215"/>
       <c r="E57" s="103"/>
       <c r="F57" s="103"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="109"/>
+      <c r="H57" s="212"/>
+      <c r="I57" s="216"/>
+      <c r="J57" s="216"/>
+      <c r="K57" s="216"/>
+      <c r="L57" s="216"/>
+      <c r="M57" s="216"/>
+      <c r="N57" s="222"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="45"/>
-      <c r="X57" s="110" t="s">
+      <c r="X57" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="Y57" s="111"/>
-      <c r="Z57" s="111"/>
-      <c r="AA57" s="111"/>
-      <c r="AB57" s="112"/>
-      <c r="AC57" s="112"/>
-      <c r="AD57" s="112"/>
-      <c r="AE57" s="112"/>
-      <c r="AF57" s="112"/>
-      <c r="AG57" s="112"/>
-      <c r="AH57" s="112"/>
-      <c r="AI57" s="112"/>
-      <c r="AJ57" s="112"/>
-      <c r="AK57" s="113"/>
+      <c r="Y57" s="218"/>
+      <c r="Z57" s="218"/>
+      <c r="AA57" s="218"/>
+      <c r="AB57" s="109"/>
+      <c r="AC57" s="109"/>
+      <c r="AD57" s="109"/>
+      <c r="AE57" s="109"/>
+      <c r="AF57" s="109"/>
+      <c r="AG57" s="109"/>
+      <c r="AH57" s="109"/>
+      <c r="AI57" s="109"/>
+      <c r="AJ57" s="109"/>
+      <c r="AK57" s="110"/>
     </row>
     <row r="58" spans="1:37" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="114"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
+      <c r="A58" s="219"/>
+      <c r="B58" s="219"/>
+      <c r="C58" s="219"/>
+      <c r="D58" s="219"/>
+      <c r="E58" s="219"/>
+      <c r="F58" s="219"/>
+      <c r="G58" s="219"/>
+      <c r="H58" s="219"/>
+      <c r="I58" s="219"/>
+      <c r="J58" s="219"/>
+      <c r="K58" s="219"/>
+      <c r="L58" s="219"/>
+      <c r="M58" s="219"/>
+      <c r="N58" s="219"/>
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
@@ -9654,28 +9654,79 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="J2:AE2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:AE3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="AD6:AK6"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="H57:N57"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="AB57:AK57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="H56:N56"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="AB56:AK56"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="U39:V40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:K38"/>
+    <mergeCell ref="L36:N38"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AJ14:AK14"/>
@@ -9699,79 +9750,28 @@
     <mergeCell ref="AD8:AK8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="U39:V40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:K38"/>
-    <mergeCell ref="L36:N38"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="H57:N57"/>
-    <mergeCell ref="X57:AA57"/>
-    <mergeCell ref="AB57:AK57"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="H56:N56"/>
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="AB56:AK56"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="AD6:AK6"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="J2:AE2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9787,7 +9787,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AM60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9805,11 +9805,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S1" s="208" t="s">
+      <c r="S1" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
     </row>
     <row r="2" spans="1:37" s="24" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
@@ -9820,30 +9820,30 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="209" t="s">
+      <c r="J2" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -9852,103 +9852,103 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="123" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123" t="s">
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123" t="s">
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123" t="s">
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="124"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="108"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="164"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="213"/>
-      <c r="U4" s="112" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112" t="s">
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="113"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="110"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -9963,116 +9963,116 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="200"/>
-      <c r="U5" s="201" t="s">
+      <c r="R5" s="121"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="202"/>
-      <c r="W5" s="202"/>
-      <c r="X5" s="202"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
       <c r="AA5" s="27"/>
       <c r="AB5" s="27"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="203" t="s">
+      <c r="AD5" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" s="202"/>
-      <c r="AF5" s="202"/>
-      <c r="AG5" s="202"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="125"/>
       <c r="AH5" s="27"/>
       <c r="AI5" s="27"/>
       <c r="AJ5" s="27"/>
       <c r="AK5" s="29"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="187" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="184" t="s">
+      <c r="J6" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="184"/>
+      <c r="K6" s="128"/>
       <c r="L6" s="31"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="187" t="s">
+      <c r="O6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
       <c r="R6" s="31"/>
       <c r="S6" s="32"/>
       <c r="T6" s="33"/>
-      <c r="U6" s="205"/>
-      <c r="V6" s="206"/>
-      <c r="W6" s="206"/>
-      <c r="X6" s="206"/>
-      <c r="Y6" s="206"/>
-      <c r="Z6" s="206"/>
-      <c r="AA6" s="206"/>
-      <c r="AB6" s="206"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193"/>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="193"/>
-      <c r="AJ6" s="193"/>
-      <c r="AK6" s="195"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="135"/>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="182"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="184" t="s">
+      <c r="J7" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="184"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="31"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="182"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="172"/>
       <c r="R7" s="31"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="189" t="s">
+      <c r="U7" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="190"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="190"/>
+      <c r="V7" s="178"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
       <c r="AB7" s="36"/>
       <c r="AC7" s="37"/>
-      <c r="AD7" s="191" t="s">
+      <c r="AD7" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="190"/>
-      <c r="AG7" s="190"/>
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="178"/>
+      <c r="AG7" s="178"/>
       <c r="AH7" s="36"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
@@ -10081,79 +10081,79 @@
     <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="185"/>
-      <c r="J8" s="184" t="s">
+      <c r="D8" s="173"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="174"/>
+      <c r="J8" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="184"/>
+      <c r="K8" s="128"/>
       <c r="L8" s="31"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="185"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="174"/>
       <c r="R8" s="31"/>
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
-      <c r="U8" s="192"/>
-      <c r="V8" s="193"/>
-      <c r="W8" s="193"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="193"/>
-      <c r="AB8" s="193"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
       <c r="AC8" s="39"/>
-      <c r="AD8" s="194"/>
-      <c r="AE8" s="193"/>
-      <c r="AF8" s="193"/>
-      <c r="AG8" s="193"/>
-      <c r="AH8" s="193"/>
-      <c r="AI8" s="193"/>
-      <c r="AJ8" s="193"/>
-      <c r="AK8" s="195"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="134"/>
+      <c r="AJ8" s="134"/>
+      <c r="AK8" s="135"/>
     </row>
     <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="188"/>
-      <c r="J9" s="184" t="s">
+      <c r="D9" s="175"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="176"/>
+      <c r="J9" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="184"/>
+      <c r="K9" s="128"/>
       <c r="L9" s="31"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="188"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="176"/>
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="189" t="s">
+      <c r="U9" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="178"/>
+      <c r="X9" s="178"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
       <c r="AC9" s="37"/>
-      <c r="AD9" s="170" t="s">
+      <c r="AD9" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="AE9" s="171"/>
-      <c r="AF9" s="171"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="171"/>
-      <c r="AJ9" s="171"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="142"/>
+      <c r="AJ9" s="142"/>
       <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10166,10 +10166,10 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="172" t="s">
+      <c r="J10" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="172"/>
+      <c r="K10" s="143"/>
       <c r="L10" s="59"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -10179,85 +10179,85 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
       <c r="AC10" s="43"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="174"/>
-      <c r="AF10" s="174"/>
-      <c r="AG10" s="174"/>
-      <c r="AH10" s="174"/>
-      <c r="AI10" s="174"/>
-      <c r="AJ10" s="174"/>
-      <c r="AK10" s="176"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="145"/>
+      <c r="AJ10" s="145"/>
+      <c r="AK10" s="147"/>
     </row>
     <row r="11" spans="1:37" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="140" t="s">
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="140"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="146" t="s">
+      <c r="M12" s="153"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="148"/>
-      <c r="X12" s="177" t="s">
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="161"/>
+      <c r="X12" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="178"/>
-      <c r="Z12" s="178"/>
-      <c r="AA12" s="178"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="178"/>
-      <c r="AD12" s="178"/>
-      <c r="AE12" s="178"/>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="178"/>
-      <c r="AH12" s="178"/>
-      <c r="AI12" s="178"/>
-      <c r="AJ12" s="178"/>
-      <c r="AK12" s="179"/>
+      <c r="Y12" s="226"/>
+      <c r="Z12" s="226"/>
+      <c r="AA12" s="226"/>
+      <c r="AB12" s="226"/>
+      <c r="AC12" s="226"/>
+      <c r="AD12" s="226"/>
+      <c r="AE12" s="226"/>
+      <c r="AF12" s="226"/>
+      <c r="AG12" s="226"/>
+      <c r="AH12" s="226"/>
+      <c r="AI12" s="226"/>
+      <c r="AJ12" s="226"/>
+      <c r="AK12" s="227"/>
     </row>
     <row r="13" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="143"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="156"/>
       <c r="O13" s="3" t="s">
         <v>67</v>
       </c>
@@ -10273,104 +10273,104 @@
       <c r="S13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="167"/>
-      <c r="AB13" s="167"/>
-      <c r="AC13" s="167"/>
-      <c r="AD13" s="167"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="167"/>
-      <c r="AG13" s="167"/>
-      <c r="AH13" s="167"/>
-      <c r="AI13" s="167"/>
-      <c r="AJ13" s="167"/>
-      <c r="AK13" s="169"/>
+      <c r="X13" s="223"/>
+      <c r="Y13" s="228"/>
+      <c r="Z13" s="228"/>
+      <c r="AA13" s="228"/>
+      <c r="AB13" s="228"/>
+      <c r="AC13" s="228"/>
+      <c r="AD13" s="228"/>
+      <c r="AE13" s="228"/>
+      <c r="AF13" s="228"/>
+      <c r="AG13" s="228"/>
+      <c r="AH13" s="228"/>
+      <c r="AI13" s="228"/>
+      <c r="AJ13" s="228"/>
+      <c r="AK13" s="224"/>
     </row>
     <row r="14" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="145"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="158"/>
       <c r="O14" s="44"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="45"/>
-      <c r="X14" s="164" t="s">
+      <c r="X14" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="Y14" s="165"/>
-      <c r="Z14" s="166" t="s">
+      <c r="Y14" s="229"/>
+      <c r="Z14" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="AA14" s="167"/>
+      <c r="AA14" s="228"/>
       <c r="AB14" s="17"/>
-      <c r="AC14" s="168" t="s">
+      <c r="AC14" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AD14" s="165"/>
-      <c r="AE14" s="166" t="s">
+      <c r="AD14" s="229"/>
+      <c r="AE14" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="AF14" s="167"/>
+      <c r="AF14" s="228"/>
       <c r="AG14" s="17"/>
-      <c r="AH14" s="168" t="s">
+      <c r="AH14" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AI14" s="165"/>
-      <c r="AJ14" s="166" t="s">
+      <c r="AI14" s="229"/>
+      <c r="AJ14" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="AK14" s="169"/>
+      <c r="AK14" s="224"/>
     </row>
     <row r="15" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="119" t="s">
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="155" t="s">
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="157" t="s">
+      <c r="K15" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="128" t="s">
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="124"/>
-      <c r="U15" s="129" t="s">
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="108"/>
+      <c r="U15" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="130"/>
+      <c r="V15" s="198"/>
       <c r="X15" s="47"/>
       <c r="Y15" s="11">
         <v>1</v>
@@ -10399,16 +10399,16 @@
       <c r="AK15" s="7"/>
     </row>
     <row r="16" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="125"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="156"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="189"/>
       <c r="K16" s="48" t="s">
         <v>7</v>
       </c>
@@ -10436,8 +10436,8 @@
       <c r="S16" s="10">
         <v>5</v>
       </c>
-      <c r="U16" s="131"/>
-      <c r="V16" s="132"/>
+      <c r="U16" s="199"/>
+      <c r="V16" s="200"/>
       <c r="X16" s="49"/>
       <c r="Y16" s="13">
         <v>2</v>
@@ -10472,11 +10472,11 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="135"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="203"/>
       <c r="J17" s="60">
         <v>4</v>
       </c>
@@ -10523,11 +10523,11 @@
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="117"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="197"/>
       <c r="J18" s="61">
         <v>5</v>
       </c>
@@ -10540,10 +10540,10 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="54"/>
-      <c r="U18" s="118" t="s">
+      <c r="U18" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="126" t="s">
+      <c r="V18" s="205" t="s">
         <v>12</v>
       </c>
       <c r="X18" s="49"/>
@@ -10580,11 +10580,11 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
       <c r="J19" s="61">
         <v>6</v>
       </c>
@@ -10597,8 +10597,8 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="54"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="127"/>
+      <c r="U19" s="182"/>
+      <c r="V19" s="206"/>
       <c r="X19" s="49"/>
       <c r="Y19" s="13">
         <v>5</v>
@@ -10633,11 +10633,11 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197"/>
       <c r="J20" s="61">
         <v>7</v>
       </c>
@@ -10690,11 +10690,11 @@
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="197"/>
       <c r="J21" s="61">
         <v>8</v>
       </c>
@@ -10747,11 +10747,11 @@
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="197"/>
       <c r="J22" s="61">
         <v>9</v>
       </c>
@@ -10804,11 +10804,11 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="197"/>
       <c r="J23" s="61">
         <v>10</v>
       </c>
@@ -10861,11 +10861,11 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="117"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
       <c r="J24" s="61">
         <v>11</v>
       </c>
@@ -10912,11 +10912,11 @@
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="117"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="197"/>
       <c r="J25" s="61">
         <v>12</v>
       </c>
@@ -10929,10 +10929,10 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="54"/>
-      <c r="U25" s="118" t="s">
+      <c r="U25" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="126" t="s">
+      <c r="V25" s="205" t="s">
         <v>14</v>
       </c>
       <c r="X25" s="49"/>
@@ -10969,11 +10969,11 @@
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="117"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="197"/>
       <c r="J26" s="61">
         <v>13</v>
       </c>
@@ -10986,8 +10986,8 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="54"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="127"/>
+      <c r="U26" s="182"/>
+      <c r="V26" s="206"/>
       <c r="X26" s="49"/>
       <c r="Y26" s="13">
         <v>12</v>
@@ -11025,11 +11025,11 @@
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
       <c r="J27" s="61">
         <v>14</v>
       </c>
@@ -11082,11 +11082,11 @@
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="117"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="197"/>
       <c r="J28" s="61">
         <v>15</v>
       </c>
@@ -11139,11 +11139,11 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="117"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="197"/>
       <c r="J29" s="61">
         <v>16</v>
       </c>
@@ -11196,11 +11196,11 @@
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="117"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="197"/>
       <c r="J30" s="61">
         <v>17</v>
       </c>
@@ -11253,11 +11253,11 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="117"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="197"/>
       <c r="J31" s="62">
         <v>18</v>
       </c>
@@ -11298,22 +11298,22 @@
       <c r="AK31" s="23"/>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="208"/>
       <c r="E32" s="102"/>
       <c r="F32" s="102"/>
       <c r="G32" s="51"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
       <c r="O32" s="51"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="51"/>
@@ -11347,22 +11347,22 @@
       <c r="AK32" s="23"/>
     </row>
     <row r="33" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="162" t="s">
+      <c r="A33" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="211"/>
       <c r="E33" s="103"/>
       <c r="F33" s="103"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -11471,31 +11471,31 @@
       <c r="AK35" s="23"/>
     </row>
     <row r="36" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="129" t="s">
+      <c r="A36" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="140" t="s">
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="140"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="146" t="s">
+      <c r="M36" s="153"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="148"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="160"/>
+      <c r="S36" s="161"/>
       <c r="X36" s="49"/>
       <c r="Y36" s="13">
         <v>22</v>
@@ -11524,22 +11524,22 @@
       <c r="AK36" s="23"/>
     </row>
     <row r="37" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="150"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="142"/>
-      <c r="M37" s="142"/>
-      <c r="N37" s="143"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="156"/>
       <c r="O37" s="3" t="s">
         <v>67</v>
       </c>
@@ -11586,17 +11586,17 @@
       <c r="A38" s="100"/>
       <c r="B38" s="101"/>
       <c r="C38" s="101"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="145"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="158"/>
       <c r="O38" s="44"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
@@ -11630,41 +11630,41 @@
       <c r="AK38" s="23"/>
     </row>
     <row r="39" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="152" t="s">
+      <c r="B39" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="119" t="s">
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="155" t="s">
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="157" t="s">
+      <c r="K39" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="159"/>
-      <c r="O39" s="128" t="s">
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="192"/>
+      <c r="O39" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="124"/>
-      <c r="U39" s="129" t="s">
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="108"/>
+      <c r="U39" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="V39" s="130"/>
+      <c r="V39" s="198"/>
       <c r="X39" s="49"/>
       <c r="Y39" s="13">
         <v>25</v>
@@ -11693,16 +11693,16 @@
       <c r="AK39" s="23"/>
     </row>
     <row r="40" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="156"/>
+      <c r="A40" s="182"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="189"/>
       <c r="K40" s="48" t="s">
         <v>7</v>
       </c>
@@ -11730,8 +11730,8 @@
       <c r="S40" s="10">
         <v>5</v>
       </c>
-      <c r="U40" s="131"/>
-      <c r="V40" s="132"/>
+      <c r="U40" s="199"/>
+      <c r="V40" s="200"/>
       <c r="X40" s="49"/>
       <c r="Y40" s="13">
         <v>26</v>
@@ -11766,11 +11766,11 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="135"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
       <c r="J41" s="60">
         <v>4</v>
       </c>
@@ -11817,11 +11817,11 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="117"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="197"/>
       <c r="J42" s="61">
         <v>5</v>
       </c>
@@ -11834,10 +11834,10 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="54"/>
-      <c r="U42" s="118" t="s">
+      <c r="U42" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="126" t="s">
+      <c r="V42" s="205" t="s">
         <v>12</v>
       </c>
       <c r="X42" s="49"/>
@@ -11874,11 +11874,11 @@
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="117"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="197"/>
       <c r="J43" s="61">
         <v>6</v>
       </c>
@@ -11891,8 +11891,8 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="54"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="127"/>
+      <c r="U43" s="182"/>
+      <c r="V43" s="206"/>
       <c r="X43" s="49"/>
       <c r="Y43" s="13">
         <v>29</v>
@@ -11927,11 +11927,11 @@
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="117"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="197"/>
       <c r="J44" s="61">
         <v>7</v>
       </c>
@@ -11984,11 +11984,11 @@
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="117"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="197"/>
       <c r="J45" s="61">
         <v>8</v>
       </c>
@@ -12041,11 +12041,11 @@
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="117"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="197"/>
       <c r="J46" s="61">
         <v>9</v>
       </c>
@@ -12098,11 +12098,11 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="117"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="197"/>
       <c r="J47" s="61">
         <v>10</v>
       </c>
@@ -12155,11 +12155,11 @@
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="117"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
+      <c r="I48" s="197"/>
       <c r="J48" s="61">
         <v>11</v>
       </c>
@@ -12206,11 +12206,11 @@
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="117"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="197"/>
       <c r="J49" s="61">
         <v>12</v>
       </c>
@@ -12223,10 +12223,10 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
       <c r="S49" s="54"/>
-      <c r="U49" s="118" t="s">
+      <c r="U49" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="V49" s="126" t="s">
+      <c r="V49" s="205" t="s">
         <v>14</v>
       </c>
       <c r="X49" s="49"/>
@@ -12263,11 +12263,11 @@
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="117"/>
+      <c r="E50" s="195"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="197"/>
       <c r="J50" s="61">
         <v>13</v>
       </c>
@@ -12280,8 +12280,8 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
       <c r="S50" s="54"/>
-      <c r="U50" s="125"/>
-      <c r="V50" s="127"/>
+      <c r="U50" s="182"/>
+      <c r="V50" s="206"/>
       <c r="X50" s="49"/>
       <c r="Y50" s="13">
         <v>36</v>
@@ -12316,11 +12316,11 @@
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="117"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="197"/>
       <c r="J51" s="61">
         <v>14</v>
       </c>
@@ -12373,11 +12373,11 @@
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="117"/>
+      <c r="E52" s="195"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="197"/>
       <c r="J52" s="61">
         <v>15</v>
       </c>
@@ -12430,11 +12430,11 @@
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="117"/>
+      <c r="E53" s="195"/>
+      <c r="F53" s="196"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="197"/>
       <c r="J53" s="61">
         <v>16</v>
       </c>
@@ -12487,11 +12487,11 @@
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="117"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="197"/>
       <c r="J54" s="61">
         <v>17</v>
       </c>
@@ -12544,11 +12544,11 @@
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="117"/>
+      <c r="E55" s="195"/>
+      <c r="F55" s="196"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="196"/>
+      <c r="I55" s="197"/>
       <c r="J55" s="62">
         <v>18</v>
       </c>
@@ -12563,98 +12563,98 @@
       <c r="S55" s="45"/>
     </row>
     <row r="56" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="185"/>
+      <c r="C56" s="185"/>
+      <c r="D56" s="185"/>
       <c r="E56" s="102"/>
       <c r="F56" s="102"/>
       <c r="G56" s="51"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
+      <c r="H56" s="186"/>
+      <c r="I56" s="186"/>
+      <c r="J56" s="186"/>
+      <c r="K56" s="186"/>
+      <c r="L56" s="186"/>
+      <c r="M56" s="186"/>
+      <c r="N56" s="186"/>
       <c r="O56" s="51"/>
       <c r="P56" s="51"/>
       <c r="Q56" s="51"/>
       <c r="R56" s="51"/>
       <c r="S56" s="52"/>
-      <c r="X56" s="121" t="s">
+      <c r="X56" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="Y56" s="122"/>
-      <c r="Z56" s="122"/>
-      <c r="AA56" s="122"/>
-      <c r="AB56" s="123"/>
-      <c r="AC56" s="123"/>
-      <c r="AD56" s="123"/>
-      <c r="AE56" s="123"/>
-      <c r="AF56" s="123"/>
-      <c r="AG56" s="123"/>
-      <c r="AH56" s="123"/>
-      <c r="AI56" s="123"/>
-      <c r="AJ56" s="123"/>
-      <c r="AK56" s="124"/>
+      <c r="Y56" s="221"/>
+      <c r="Z56" s="221"/>
+      <c r="AA56" s="221"/>
+      <c r="AB56" s="107"/>
+      <c r="AC56" s="107"/>
+      <c r="AD56" s="107"/>
+      <c r="AE56" s="107"/>
+      <c r="AF56" s="107"/>
+      <c r="AG56" s="107"/>
+      <c r="AH56" s="107"/>
+      <c r="AI56" s="107"/>
+      <c r="AJ56" s="107"/>
+      <c r="AK56" s="108"/>
     </row>
     <row r="57" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="106"/>
+      <c r="B57" s="214"/>
+      <c r="C57" s="214"/>
+      <c r="D57" s="215"/>
       <c r="E57" s="103"/>
       <c r="F57" s="103"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="109"/>
+      <c r="H57" s="212"/>
+      <c r="I57" s="216"/>
+      <c r="J57" s="216"/>
+      <c r="K57" s="216"/>
+      <c r="L57" s="216"/>
+      <c r="M57" s="216"/>
+      <c r="N57" s="222"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="45"/>
-      <c r="X57" s="110" t="s">
+      <c r="X57" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="Y57" s="111"/>
-      <c r="Z57" s="111"/>
-      <c r="AA57" s="111"/>
-      <c r="AB57" s="112"/>
-      <c r="AC57" s="112"/>
-      <c r="AD57" s="112"/>
-      <c r="AE57" s="112"/>
-      <c r="AF57" s="112"/>
-      <c r="AG57" s="112"/>
-      <c r="AH57" s="112"/>
-      <c r="AI57" s="112"/>
-      <c r="AJ57" s="112"/>
-      <c r="AK57" s="113"/>
+      <c r="Y57" s="218"/>
+      <c r="Z57" s="218"/>
+      <c r="AA57" s="218"/>
+      <c r="AB57" s="109"/>
+      <c r="AC57" s="109"/>
+      <c r="AD57" s="109"/>
+      <c r="AE57" s="109"/>
+      <c r="AF57" s="109"/>
+      <c r="AG57" s="109"/>
+      <c r="AH57" s="109"/>
+      <c r="AI57" s="109"/>
+      <c r="AJ57" s="109"/>
+      <c r="AK57" s="110"/>
     </row>
     <row r="58" spans="1:37" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="114"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
+      <c r="A58" s="219"/>
+      <c r="B58" s="219"/>
+      <c r="C58" s="219"/>
+      <c r="D58" s="219"/>
+      <c r="E58" s="219"/>
+      <c r="F58" s="219"/>
+      <c r="G58" s="219"/>
+      <c r="H58" s="219"/>
+      <c r="I58" s="219"/>
+      <c r="J58" s="219"/>
+      <c r="K58" s="219"/>
+      <c r="L58" s="219"/>
+      <c r="M58" s="219"/>
+      <c r="N58" s="219"/>
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
@@ -12671,84 +12671,17 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="H56:N56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="H57:N57"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="X12:AK13"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD6:AK6"/>
-    <mergeCell ref="AD8:AK8"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U10:AB10"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="U39:V40"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="X4:AE4"/>
-    <mergeCell ref="X3:AE3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="J2:AE2"/>
-    <mergeCell ref="D3:T4"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="AB56:AK56"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="AB57:AK57"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="U4:W4"/>
     <mergeCell ref="AD9:AJ9"/>
@@ -12767,33 +12700,100 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="U8:AB8"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="U39:V40"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:I40"/>
+    <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U10:AB10"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="X4:AE4"/>
+    <mergeCell ref="X3:AE3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="J2:AE2"/>
+    <mergeCell ref="D3:T4"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="X12:AK13"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD6:AK6"/>
+    <mergeCell ref="AD8:AK8"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="D36:K38"/>
+    <mergeCell ref="L36:N38"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="H56:N56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="H57:N57"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E45:I45"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="H33:N33"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:K38"/>
-    <mergeCell ref="L36:N38"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="AB56:AK56"/>
-    <mergeCell ref="X57:AA57"/>
-    <mergeCell ref="AB57:AK57"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12813,50 +12813,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="246"/>
     </row>
     <row r="2" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
       <c r="T2" s="65"/>
     </row>
     <row r="3" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12870,43 +12870,43 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="217" t="s">
+      <c r="K3" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="218"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="249"/>
       <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="219" t="s">
+      <c r="B4" s="250"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="221"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="220"/>
-      <c r="Q4" s="220"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="220"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="251"/>
+      <c r="O4" s="251"/>
+      <c r="P4" s="251"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="251"/>
       <c r="T4" s="68"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12922,53 +12922,53 @@
       <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
+      <c r="B6" s="234"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="234"/>
       <c r="J6" s="66"/>
-      <c r="K6" s="226" t="s">
+      <c r="K6" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="226"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="226"/>
-      <c r="P6" s="226"/>
-      <c r="Q6" s="226"/>
-      <c r="R6" s="226"/>
-      <c r="S6" s="226"/>
+      <c r="L6" s="234"/>
+      <c r="M6" s="234"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="234"/>
+      <c r="P6" s="234"/>
+      <c r="Q6" s="234"/>
+      <c r="R6" s="234"/>
+      <c r="S6" s="234"/>
     </row>
     <row r="7" spans="1:20" s="70" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="227"/>
-      <c r="K7" s="227" t="s">
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="K7" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="227"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="227"/>
-      <c r="O7" s="227"/>
-      <c r="P7" s="227"/>
-      <c r="Q7" s="227"/>
-      <c r="R7" s="227"/>
-      <c r="S7" s="227"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="235"/>
+      <c r="O7" s="235"/>
+      <c r="P7" s="235"/>
+      <c r="Q7" s="235"/>
+      <c r="R7" s="235"/>
+      <c r="S7" s="235"/>
     </row>
     <row r="8" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
@@ -12991,40 +12991,40 @@
       <c r="R8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="228" t="s">
+      <c r="A9" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="232"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="240"/>
       <c r="G9" s="66"/>
-      <c r="H9" s="233" t="s">
+      <c r="H9" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="234"/>
+      <c r="I9" s="242"/>
       <c r="J9" s="66"/>
-      <c r="K9" s="228" t="s">
+      <c r="K9" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="230" t="s">
+      <c r="L9" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="231"/>
-      <c r="N9" s="231"/>
-      <c r="O9" s="231"/>
-      <c r="P9" s="232"/>
+      <c r="M9" s="239"/>
+      <c r="N9" s="239"/>
+      <c r="O9" s="239"/>
+      <c r="P9" s="240"/>
       <c r="Q9" s="66"/>
-      <c r="R9" s="233" t="s">
+      <c r="R9" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="234"/>
+      <c r="S9" s="242"/>
     </row>
     <row r="10" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="229"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="71">
         <v>1</v>
       </c>
@@ -13041,10 +13041,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="66"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="236"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="244"/>
       <c r="J10" s="66"/>
-      <c r="K10" s="229"/>
+      <c r="K10" s="237"/>
       <c r="L10" s="71">
         <v>1</v>
       </c>
@@ -13061,8 +13061,8 @@
         <v>5</v>
       </c>
       <c r="Q10" s="66"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="236"/>
+      <c r="R10" s="243"/>
+      <c r="S10" s="244"/>
     </row>
     <row r="11" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71">
@@ -13267,10 +13267,10 @@
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
       <c r="F18" s="72"/>
-      <c r="H18" s="222" t="s">
+      <c r="H18" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="223"/>
+      <c r="I18" s="231"/>
       <c r="K18" s="71">
         <v>11</v>
       </c>
@@ -13279,10 +13279,10 @@
       <c r="N18" s="72"/>
       <c r="O18" s="72"/>
       <c r="P18" s="72"/>
-      <c r="R18" s="222" t="s">
+      <c r="R18" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="223"/>
+      <c r="S18" s="231"/>
     </row>
     <row r="19" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="71">
@@ -13293,8 +13293,8 @@
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
       <c r="F19" s="72"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="225"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="233"/>
       <c r="K19" s="71">
         <v>12</v>
       </c>
@@ -13303,8 +13303,8 @@
       <c r="N19" s="72"/>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="225"/>
+      <c r="R19" s="232"/>
+      <c r="S19" s="233"/>
     </row>
     <row r="20" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="71">
@@ -13520,6 +13520,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="K3:S3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:S4"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="R18:S19"/>
     <mergeCell ref="A6:I6"/>
@@ -13532,13 +13539,6 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="R9:S10"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="K3:S3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:S4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
